--- a/src/attributions/attributions_saliency_traj_340.xlsx
+++ b/src/attributions/attributions_saliency_traj_340.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01738497614860535</v>
+        <v>1.042792246153113e-05</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003336807247251272</v>
+        <v>0.000105771810922306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01797614991664886</v>
+        <v>1.824369246605784e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002297685714438558</v>
+        <v>5.400845839176327e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00547990296036005</v>
+        <v>1.462937689211685e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00368377985432744</v>
+        <v>0.0001381870388286188</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002986772218719125</v>
+        <v>1.996555874939077e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007492333650588989</v>
+        <v>4.714667375083081e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005132593214511871</v>
+        <v>1.248886292160023e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01745053380727768</v>
+        <v>4.091020673513412e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003064709715545177</v>
+        <v>8.382221858482808e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0162004716694355</v>
+        <v>2.52641984843649e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003326847217977047</v>
+        <v>4.572828765958548e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005643636919558048</v>
+        <v>3.76620446331799e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00197456032037735</v>
+        <v>9.191948629450053e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002079366007819772</v>
+        <v>1.959051223821007e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002327862661331892</v>
+        <v>1.637538844079245e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.007058270741254091</v>
+        <v>2.365098680456867e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002262873109430075</v>
+        <v>1.856282096923678e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>0.006520864088088274</v>
+        <v>3.63044932782941e-07</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00128773064352572</v>
+        <v>2.127805419149809e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.003557968884706497</v>
+        <v>4.278867436369183e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>0.009137630462646484</v>
+        <v>3.144986840197816e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001129834214225411</v>
+        <v>2.313910226803273e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.005303749348968267</v>
+        <v>2.135167051164899e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.002253123559057713</v>
+        <v>6.519690032291692e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.002738934010267258</v>
+        <v>9.473403224546928e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.001011256710626185</v>
+        <v>2.294854130013846e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.001354633597657084</v>
+        <v>1.057292502082419e-05</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002066671848297119</v>
+        <v>2.592066266515758e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0006952009862288833</v>
+        <v>1.48653789437958e-05</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.002410679124295712</v>
+        <v>5.767152288171928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.002296459628269076</v>
+        <v>1.389941371598979e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.002658850513398647</v>
+        <v>1.378906836180249e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.005893784109503031</v>
+        <v>1.527415042801294e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.002608806360512972</v>
+        <v>1.961667658179067e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.004708052612841129</v>
+        <v>1.91373001143802e-05</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.003747345181182027</v>
+        <v>1.134652939072112e-05</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.001653698040172458</v>
+        <v>1.293424429604784e-05</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.005807573441416025</v>
+        <v>3.425485601837863e-06</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.001544425031170249</v>
+        <v>2.506143209757283e-05</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.00323632825165987</v>
+        <v>3.020461917913053e-05</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0003485247725620866</v>
+        <v>1.11877488961909e-05</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0007933091255836189</v>
+        <v>2.426124592602719e-05</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.000238175765844062</v>
+        <v>6.355311143124709e-06</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.007502830121666193</v>
+        <v>6.415586994990008e-06</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.007511601317673922</v>
+        <v>5.540527490666136e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.007814080454409122</v>
+        <v>1.846098348323721e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.001724832342006266</v>
+        <v>3.248869688832201e-05</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.002339439000934362</v>
+        <v>3.475819539744407e-05</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.002033958444371819</v>
+        <v>9.128118108492345e-05</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.005377265624701977</v>
+        <v>3.414222737774253e-05</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.00315434904769063</v>
+        <v>7.059114977892023e-06</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.002639182843267918</v>
+        <v>1.728722963889595e-05</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.003891543718054891</v>
+        <v>4.827754310099408e-06</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.0002313700679223984</v>
+        <v>4.264985182089731e-05</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.00569854723289609</v>
+        <v>1.165261710411869e-05</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0004926385590806603</v>
+        <v>3.498637397569837e-06</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.002039793645963073</v>
+        <v>9.101828254642896e-06</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.001119567430578172</v>
+        <v>1.401753434038255e-05</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.001111855730414391</v>
+        <v>9.461638910579495e-06</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.006852442398667336</v>
+        <v>4.72442388854688e-06</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.001540954457595944</v>
+        <v>3.9338647184195e-07</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.00204804097302258</v>
+        <v>1.293028435611632e-05</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.001027754973620176</v>
+        <v>2.019136445596814e-05</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.004439112730324268</v>
+        <v>1.226579661306459e-05</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.0006293212063610554</v>
+        <v>1.65781493706163e-05</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.005368703976273537</v>
+        <v>4.566833467833931e-06</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.001907131634652615</v>
+        <v>1.238474578713067e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.002693521091714501</v>
+        <v>1.204364343720954e-05</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.00321664591319859</v>
+        <v>9.953098924597725e-06</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.001348062767647207</v>
+        <v>1.66056943271542e-05</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.008074438199400902</v>
+        <v>1.131364570028381e-05</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0007426842348650098</v>
+        <v>3.134147482342087e-05</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.004033473320305347</v>
+        <v>1.826908555813134e-05</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.003358240006491542</v>
+        <v>2.585356560302898e-05</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.003733479417860508</v>
+        <v>1.649207843001932e-05</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.005260814446955919</v>
+        <v>5.173881800146773e-05</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.004027024377137423</v>
+        <v>5.254887128103292e-06</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.005131712183356285</v>
+        <v>6.756889888492879e-06</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0005722302012145519</v>
+        <v>1.06160769064445e-07</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.003496274584904313</v>
+        <v>9.457174201088492e-06</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.001408726093359292</v>
+        <v>6.46867238174309e-06</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.002631948096677661</v>
+        <v>5.101519036543323e-06</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.001033946173265576</v>
+        <v>5.129976216267096e-06</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0005624421173706651</v>
+        <v>8.427743523498066e-06</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.000476263725431636</v>
+        <v>1.992679972318001e-05</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0007918305927887559</v>
+        <v>5.78424078412354e-06</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.001303107710555196</v>
+        <v>1.279553453059634e-05</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0006196271860972047</v>
+        <v>3.484640274109552e-07</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.002296543912962079</v>
+        <v>1.29493073472986e-05</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.001114070415496826</v>
+        <v>1.458261635889357e-07</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.001040370319969952</v>
+        <v>9.022801350511145e-06</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.0004760160227306187</v>
+        <v>1.244854047399713e-05</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.004412206821143627</v>
+        <v>1.195391814690083e-05</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0008434888441115618</v>
+        <v>6.311712240858469e-06</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.004829245153814554</v>
+        <v>1.655826963542495e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.005712360143661499</v>
+        <v>2.098818913509604e-05</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.004845211282372475</v>
+        <v>1.577384682605043e-05</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003061610506847501</v>
+        <v>2.953066086774925e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.0007614964270032942</v>
+        <v>9.761155524756759e-06</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.003106142394244671</v>
+        <v>4.915202680422226e-06</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.001235521631315351</v>
+        <v>7.879163604229689e-06</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.002490074373781681</v>
+        <v>6.802786174375797e-07</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0001369701349176466</v>
+        <v>2.311584103154019e-05</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0001525711268186569</v>
+        <v>2.341510025871685e-06</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.001336737768724561</v>
+        <v>1.890497878775932e-05</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0009166335803456604</v>
+        <v>1.249381966772489e-07</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.003134577069431543</v>
+        <v>1.450094532629009e-05</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.009308122098445892</v>
+        <v>1.574895395606291e-05</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.003004692494869232</v>
+        <v>1.056584733305499e-05</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.004378825891762972</v>
+        <v>3.803571962635033e-05</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.001659180270507932</v>
+        <v>2.99397961498471e-05</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.001419529085978866</v>
+        <v>9.825348570302594e-07</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.001901717158034444</v>
+        <v>5.126449650560971e-06</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.004315671976655722</v>
+        <v>5.355203029466793e-05</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.003809561021625996</v>
+        <v>1.730318217596505e-05</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0005349843995645642</v>
+        <v>1.257858366443543e-05</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.001858033239841461</v>
+        <v>1.188819987874012e-05</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.002666529268026352</v>
+        <v>1.557489849801641e-05</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.001813530107028782</v>
+        <v>6.84770520820166e-06</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0008712056442163885</v>
+        <v>1.362713010166772e-05</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.00247506657615304</v>
+        <v>5.186933549339301e-07</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.005183573812246323</v>
+        <v>9.7571237347438e-06</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.0008351061842404306</v>
+        <v>6.904715519340243e-06</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.001795146614313126</v>
+        <v>3.069629428864573e-06</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.001907365745864809</v>
+        <v>1.302226792176953e-06</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0006051295204088092</v>
+        <v>3.317550408610259e-06</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.001706309732981026</v>
+        <v>1.748368958942592e-06</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.000961251265835017</v>
+        <v>2.533180304453708e-05</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.003001982811838388</v>
+        <v>2.028126073128078e-05</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.0009134446736425161</v>
+        <v>7.653416105313227e-06</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.001778558827936649</v>
+        <v>1.730328222038224e-06</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.004615139216184616</v>
+        <v>1.9078512195847e-05</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.001744715846143663</v>
+        <v>1.38069356125925e-06</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.004565481096506119</v>
+        <v>1.55196948981029e-06</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.002011907752603292</v>
+        <v>2.096168373100227e-06</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.003411921439692378</v>
+        <v>9.354299436381552e-06</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.0004116676864214242</v>
+        <v>1.976334260689327e-06</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.000548320182133466</v>
+        <v>2.764701093838084e-06</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.001773695810697973</v>
+        <v>2.318313636351377e-05</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.00249580736272037</v>
+        <v>5.222595063969493e-06</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.00353917246684432</v>
+        <v>1.001954387902515e-05</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.001118418993428349</v>
+        <v>5.960322596365586e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.002184281591325998</v>
+        <v>9.979153219319414e-07</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.001805160893127322</v>
+        <v>1.709444859443465e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.002392494818195701</v>
+        <v>5.687570592272095e-06</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.006193889304995537</v>
+        <v>1.232497561431956e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.001076611690223217</v>
+        <v>1.751274339767406e-06</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.003581027034670115</v>
+        <v>1.168383641925175e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.004894626326858997</v>
+        <v>8.613375030108728e-06</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0004466930404305458</v>
+        <v>4.19731586589478e-05</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.00261205923743546</v>
+        <v>2.349460373807233e-06</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.003729391377419233</v>
+        <v>5.079425136500504e-06</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0002430705353617668</v>
+        <v>5.181531832931796e-06</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.002815969521179795</v>
+        <v>7.74904947320465e-07</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0005094212247058749</v>
+        <v>5.609025720332284e-06</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.001158540137112141</v>
+        <v>2.464437557136989e-06</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.0001420228945789859</v>
+        <v>1.701364817563444e-05</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0001083944080164656</v>
+        <v>7.974002073751763e-06</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.001617197180166841</v>
+        <v>1.373038958263351e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.001209057518281043</v>
+        <v>1.061872808350017e-06</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.003791887778788805</v>
+        <v>4.75679325973033e-06</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.003845470491796732</v>
+        <v>1.467411220801296e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.001531627378426492</v>
+        <v>9.793062417884357e-06</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.006891274359077215</v>
+        <v>4.243012153892778e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.002121075987815857</v>
+        <v>1.140187850978691e-05</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.004010366275906563</v>
+        <v>2.538342596380971e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.001270272419787943</v>
+        <v>1.163725664810045e-05</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.002450243104249239</v>
+        <v>1.45693829836091e-05</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.003003907157108188</v>
+        <v>1.494907246524235e-05</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.002213060855865479</v>
+        <v>1.063760555553017e-05</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.00745383882895112</v>
+        <v>6.059245788492262e-05</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.002594200195744634</v>
+        <v>6.324492915155133e-06</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.003309057559818029</v>
+        <v>3.670053774840198e-05</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.007664239965379238</v>
+        <v>3.063804615521803e-05</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.002167043508961797</v>
+        <v>3.913442196790129e-05</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.002720918972045183</v>
+        <v>1.817967495298944e-05</v>
       </c>
       <c r="FW3" t="n">
-        <v>3.61666789103765e-05</v>
+        <v>4.18377294408856e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.001572427107021213</v>
+        <v>5.074835485174845e-07</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.001423045992851257</v>
+        <v>1.413526842952706e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.006928205955773592</v>
+        <v>4.176616585027659e-06</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.0001824174541980028</v>
+        <v>1.074058855010662e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.005422883667051792</v>
+        <v>6.147763997432776e-06</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.001348576741293073</v>
+        <v>3.914928674930707e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.006155919749289751</v>
+        <v>1.990911641769344e-06</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.001345287542790174</v>
+        <v>3.33746756950859e-05</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.00277480180375278</v>
+        <v>1.907231489894912e-05</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.001196609577164054</v>
+        <v>9.888306522043422e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01499705575406551</v>
+        <v>1.259908954942546e-09</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0289261844009161</v>
+        <v>1.444237285319616e-09</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007881964556872845</v>
+        <v>7.867581031106852e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0261234063655138</v>
+        <v>7.912098753948271e-11</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03450764343142509</v>
+        <v>2.269902932283685e-09</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005834751762449741</v>
+        <v>5.774521305568214e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01817243732511997</v>
+        <v>6.826079701482968e-10</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01143294293433428</v>
+        <v>3.036805029665857e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03442629054188728</v>
+        <v>2.792556741404439e-10</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009705465286970139</v>
+        <v>1.467496124618606e-10</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01880352944135666</v>
+        <v>1.151885808958752e-09</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0103699155151844</v>
+        <v>3.729809239239046e-10</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01539890468120575</v>
+        <v>7.189305262222945e-10</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03511577099561691</v>
+        <v>1.182778652797367e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>0.009441113099455833</v>
+        <v>3.887840271943332e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>0.008657985366880894</v>
+        <v>1.081532308155886e-09</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01066955458372831</v>
+        <v>2.953595590327041e-09</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03281303867697716</v>
+        <v>1.881395872427305e-10</v>
       </c>
       <c r="S4" t="n">
-        <v>0.008562454953789711</v>
+        <v>1.7849477451648e-10</v>
       </c>
       <c r="T4" t="n">
-        <v>0.005862088408321142</v>
+        <v>4.802620523491896e-10</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0007956428453326225</v>
+        <v>1.067785096453555e-10</v>
       </c>
       <c r="V4" t="n">
-        <v>0.008676576428115368</v>
+        <v>7.700187154568994e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02617196179926395</v>
+        <v>1.234733093546936e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007027887273579836</v>
+        <v>1.199729759981949e-09</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.005523759871721268</v>
+        <v>1.222056900118673e-10</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.002257592976093292</v>
+        <v>5.815284920274166e-10</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.003460485255345702</v>
+        <v>2.306467794532807e-10</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.007049582432955503</v>
+        <v>9.104986209429455e-10</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.007368829101324081</v>
+        <v>8.736332768322086e-10</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.000412233843235299</v>
+        <v>1.161320484222017e-09</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.005400526337325573</v>
+        <v>9.239671250327319e-10</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.008535999804735184</v>
+        <v>2.844838808968575e-10</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.00454780226573348</v>
+        <v>1.604676114208559e-11</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.009878101758658886</v>
+        <v>4.873179637598923e-10</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.003212886862456799</v>
+        <v>5.634870348103505e-11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0216214619576931</v>
+        <v>6.99645841262253e-10</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.002838330576196313</v>
+        <v>3.474161514027685e-10</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.005409225821495056</v>
+        <v>4.502189177024718e-10</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0001297950511798263</v>
+        <v>2.630159701144663e-10</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.006025626789778471</v>
+        <v>5.921665380270724e-10</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.003677380038425326</v>
+        <v>6.834407484390681e-10</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.02128047682344913</v>
+        <v>1.3600720549789e-09</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.004077737219631672</v>
+        <v>5.085976084728827e-10</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.01221187319606543</v>
+        <v>7.677414259887883e-11</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.004755618050694466</v>
+        <v>5.732167518424092e-10</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.01013532653450966</v>
+        <v>1.026886464750021e-09</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.008937641978263855</v>
+        <v>1.770335877893103e-09</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.005719802342355251</v>
+        <v>8.144691587830266e-10</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.01665147580206394</v>
+        <v>1.208162347943187e-09</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.009655909612774849</v>
+        <v>3.402196524504575e-09</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.03102750889956951</v>
+        <v>4.203895898058363e-09</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.005108248442411423</v>
+        <v>9.727345595678116e-10</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0007572917966172099</v>
+        <v>5.224581878238155e-10</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.01647807657718658</v>
+        <v>1.554201656261966e-09</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.00159611867275089</v>
+        <v>8.557929365160533e-10</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.006156193558126688</v>
+        <v>4.314154866680298e-10</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0001421768683940172</v>
+        <v>1.965607121512392e-10</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.001718070590868592</v>
+        <v>1.03022768094263e-09</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.005754249636083841</v>
+        <v>4.038761547420222e-10</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.01296401396393776</v>
+        <v>4.862790170534481e-10</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.01725714467465878</v>
+        <v>1.007121275264922e-09</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.007247802801430225</v>
+        <v>6.174710187600851e-10</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0001868566614575684</v>
+        <v>1.021673523560196e-09</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.004278817679733038</v>
+        <v>8.672695339662084e-10</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.007885980419814587</v>
+        <v>2.714981572893294e-10</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.001940872287377715</v>
+        <v>7.025293680129607e-10</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.00831668172031641</v>
+        <v>2.685510702704619e-10</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.001994504826143384</v>
+        <v>1.148512951409941e-09</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.007308740634471178</v>
+        <v>6.437955724081235e-11</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.004958761855959892</v>
+        <v>5.235636368894347e-10</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.009677094407379627</v>
+        <v>8.545309460039618e-10</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.00707235699519515</v>
+        <v>1.261095672333568e-10</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0006697371136397123</v>
+        <v>3.830475658883614e-10</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0118317436426878</v>
+        <v>2.32369262720411e-11</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.001213882118463516</v>
+        <v>2.461915948881455e-10</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.01201472617685795</v>
+        <v>5.259311874894479e-10</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01557106338441372</v>
+        <v>2.024200806971521e-09</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.004771537613123655</v>
+        <v>2.46690801120053e-09</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.002804153598845005</v>
+        <v>2.66915350932706e-10</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.01182850822806358</v>
+        <v>1.161331697474566e-09</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.02378065511584282</v>
+        <v>1.468698773710031e-10</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.002714090282097459</v>
+        <v>1.891720287361398e-12</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.003228052519261837</v>
+        <v>4.702688793933874e-10</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.002148505300283432</v>
+        <v>7.89774773357621e-11</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.003507671179249883</v>
+        <v>8.61141435937185e-11</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.004190457053482533</v>
+        <v>8.095579762112948e-12</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.006111166905611753</v>
+        <v>1.057402831960985e-09</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.001164441695436835</v>
+        <v>5.159043192648483e-10</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.004433275200426579</v>
+        <v>6.880830349942357e-10</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.003738993778824806</v>
+        <v>1.706883245855551e-11</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.002425173064693809</v>
+        <v>1.131669757903353e-11</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.003826853586360812</v>
+        <v>1.105471270079761e-09</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.00614524632692337</v>
+        <v>2.830926326691241e-10</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0002362863160669804</v>
+        <v>1.933370130657863e-09</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.003275434020906687</v>
+        <v>9.267067668794482e-10</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.003100747708231211</v>
+        <v>5.538967062790334e-10</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.002993107307702303</v>
+        <v>4.735240533015883e-10</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.004440358374267817</v>
+        <v>5.725940832590481e-10</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.00301579013466835</v>
+        <v>8.361865089234755e-10</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.003065517172217369</v>
+        <v>2.174479901695392e-10</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.002510316437110305</v>
+        <v>5.70238301023096e-10</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0004371838003862649</v>
+        <v>7.742928520571013e-11</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.003721288871020079</v>
+        <v>3.51106713147864e-11</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.008089073002338409</v>
+        <v>1.167375224264688e-10</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.008112605661153793</v>
+        <v>1.159214280122001e-09</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.001948853023350239</v>
+        <v>5.66524882561481e-10</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.002947680884972215</v>
+        <v>9.394072186807989e-10</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.006922957487404346</v>
+        <v>2.268468191068962e-10</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.003177415579557419</v>
+        <v>1.129355498008522e-10</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.00394112104550004</v>
+        <v>7.662871448488318e-10</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.011666314676404</v>
+        <v>6.7864425190578e-10</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.01996378973126411</v>
+        <v>1.878524669152171e-09</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.006340516731142998</v>
+        <v>2.100147389327844e-09</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.001130262622609735</v>
+        <v>1.405128791098775e-10</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.01821693032979965</v>
+        <v>7.048863714942399e-10</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.004076811950653791</v>
+        <v>1.991383280497416e-09</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.000236522639170289</v>
+        <v>2.000802717949668e-10</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0004436776507645845</v>
+        <v>3.703345963224081e-10</v>
       </c>
       <c r="DO4" t="n">
-        <v>5.140528082847595e-05</v>
+        <v>1.845347902262873e-10</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.002600560430437326</v>
+        <v>4.981297041517507e-10</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.006420078687369823</v>
+        <v>2.285757000342059e-10</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.004078154917806387</v>
+        <v>1.222809353773613e-10</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.002967200241982937</v>
+        <v>4.578885048900361e-10</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.00308608403429389</v>
+        <v>2.0297971636829e-10</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.004778135102242231</v>
+        <v>2.62371735448852e-10</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.005683954805135727</v>
+        <v>6.424297205320784e-11</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.002177712973207235</v>
+        <v>4.534429776104076e-10</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0007015725714154541</v>
+        <v>4.062889469302888e-10</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0006271988386288285</v>
+        <v>8.955500785390313e-10</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.009322008118033409</v>
+        <v>7.14390047118485e-10</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.00130907294806093</v>
+        <v>6.881395453461892e-10</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0009892903035506606</v>
+        <v>5.875594455417854e-10</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.001152252312749624</v>
+        <v>4.585325730221967e-10</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.004294177982956171</v>
+        <v>1.040957542386423e-09</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.009985346347093582</v>
+        <v>3.698116812778096e-11</v>
       </c>
       <c r="EF4" t="n">
-        <v>5.74166770093143e-05</v>
+        <v>5.11542613823579e-11</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.003412256017327309</v>
+        <v>5.868716068668789e-10</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.001405549934133887</v>
+        <v>1.829265627861787e-10</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.003183149732649326</v>
+        <v>7.807643420676413e-10</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.004973255563527346</v>
+        <v>8.610111512652452e-10</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.003781520295888186</v>
+        <v>6.027878751702076e-10</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.004647601861506701</v>
+        <v>8.811160134847285e-12</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.001323401927947998</v>
+        <v>9.540167961175072e-11</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.005802679806947708</v>
+        <v>4.959623267630775e-10</v>
       </c>
       <c r="EO4" t="n">
-        <v>9.583774954080582e-05</v>
+        <v>5.156916560444813e-10</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.00136413227301091</v>
+        <v>9.275294421406954e-11</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0008841214003041387</v>
+        <v>1.089425910594244e-10</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.01204387843608856</v>
+        <v>3.911551638147159e-11</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0004428245010785758</v>
+        <v>2.643460450535429e-11</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.01582236401736736</v>
+        <v>1.210393119066566e-09</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.009775781072676182</v>
+        <v>6.07062122792712e-10</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.008711655624210835</v>
+        <v>1.242977831772407e-09</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.003691578982397914</v>
+        <v>8.523576289221069e-11</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.001812505070120096</v>
+        <v>1.93077220878024e-10</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.004280147608369589</v>
+        <v>4.443406753651402e-10</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.002734742593020201</v>
+        <v>2.930773401743636e-10</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.0003097284643445164</v>
+        <v>9.502022432772428e-12</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.004029965959489346</v>
+        <v>2.577968047368095e-11</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.004501546267420053</v>
+        <v>9.548033474970907e-10</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.002828551456332207</v>
+        <v>2.729479697816117e-10</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.002431184984743595</v>
+        <v>9.696866642983082e-10</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.009133540093898773</v>
+        <v>3.202088871834263e-10</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.002384277293458581</v>
+        <v>3.401591508467305e-10</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.002495386172086</v>
+        <v>1.016135731113366e-09</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.001169459312222898</v>
+        <v>7.531856804909864e-10</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.00889391265809536</v>
+        <v>9.636471620666498e-10</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.006112135481089354</v>
+        <v>7.808447222146242e-10</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.003234598319977522</v>
+        <v>1.043035435799311e-09</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.0006076416466385126</v>
+        <v>1.513305869504933e-10</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.01975908130407333</v>
+        <v>1.281388883889178e-10</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.005964862182736397</v>
+        <v>3.478583532334767e-10</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.003360107773914933</v>
+        <v>3.685176330758821e-10</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0003083805786445737</v>
+        <v>1.171002184108261e-09</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.002293527126312256</v>
+        <v>6.615306913371199e-11</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.008633878082036972</v>
+        <v>1.239030877897562e-09</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01364311762154102</v>
+        <v>1.168724228506335e-09</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.002333034295588732</v>
+        <v>1.141247429892189e-09</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.01650405488908291</v>
+        <v>2.989887504245559e-11</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.006217438727617264</v>
+        <v>1.632816798435854e-10</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.003867150051519275</v>
+        <v>1.058340082238374e-10</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.005693911574780941</v>
+        <v>3.75374231698089e-10</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0008242858457379043</v>
+        <v>9.978169679403237e-11</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0006634762976318598</v>
+        <v>2.087131023564837e-10</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.004738796036690474</v>
+        <v>1.495255030903309e-09</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.006773720029741526</v>
+        <v>2.852663882890738e-09</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.001333186868578196</v>
+        <v>4.816144150154855e-10</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.001941393245942891</v>
+        <v>1.03871355960905e-09</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.008887177333235741</v>
+        <v>3.451564034584464e-11</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.002080641454085708</v>
+        <v>1.636746432831515e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01310331467539072</v>
+        <v>0.007801937870681286</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02793255820870399</v>
+        <v>0.005677173845469952</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006259775720536709</v>
+        <v>0.006749969907104969</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04909492284059525</v>
+        <v>0.01097865588963032</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03677834942936897</v>
+        <v>0.002005381044000387</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09871906042098999</v>
+        <v>0.003456211648881435</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01172049157321453</v>
+        <v>0.001465666340664029</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01798907481133938</v>
+        <v>0.00543105136603117</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01160663552582264</v>
+        <v>0.0005021519027650356</v>
       </c>
       <c r="J5" t="n">
-        <v>1.566531136631966e-05</v>
+        <v>0.01131905242800713</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01161429658532143</v>
+        <v>0.006182202138006687</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005550157278776169</v>
+        <v>0.006104238331317902</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04379985108971596</v>
+        <v>0.01216486189514399</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004166174679994583</v>
+        <v>0.005635800305753946</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07799889892339706</v>
+        <v>0.00082147226203233</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03235869482159615</v>
+        <v>0.003512948751449585</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03002678602933884</v>
+        <v>0.005422930233180523</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002990385517477989</v>
+        <v>0.003931938204914331</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0133299445733428</v>
+        <v>0.003375483443960547</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001213587587699294</v>
+        <v>0.00142701412551105</v>
       </c>
       <c r="U5" t="n">
-        <v>0.005740156397223473</v>
+        <v>0.0001289481442654505</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02199413813650608</v>
+        <v>0.0006932829855941236</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03919239714741707</v>
+        <v>0.00584928784519434</v>
       </c>
       <c r="X5" t="n">
-        <v>0.007856442593038082</v>
+        <v>0.001459755352698267</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005412215366959572</v>
+        <v>3.517139703035355e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0008645958732813597</v>
+        <v>0.008203824050724506</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.006926538422703743</v>
+        <v>0.0003445188922341913</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.009234638884663582</v>
+        <v>0.0003837207332253456</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01704804599285126</v>
+        <v>0.004625220317393541</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.002478827489539981</v>
+        <v>0.0002666443469934165</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01276360638439655</v>
+        <v>0.001368671422824264</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.007160604931414127</v>
+        <v>0.001514922827482224</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0001988532021641731</v>
+        <v>0.001885236823000014</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.005819798447191715</v>
+        <v>0.0006887773051857948</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.006226231344044209</v>
+        <v>0.0007779216393828392</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.003933172207325697</v>
+        <v>0.001386235351674259</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.001857544295489788</v>
+        <v>3.302283585071564e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.005521543323993683</v>
+        <v>0.00211192574352026</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.01069035287946463</v>
+        <v>0.00074491195846349</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.006278154440224171</v>
+        <v>0.0008011626778170466</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01453548297286034</v>
+        <v>0.0001656215026741847</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.01623033359646797</v>
+        <v>0.001147506292909384</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.00701632909476757</v>
+        <v>0.00224292790517211</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.005392644554376602</v>
+        <v>0.00158946099691093</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.005511769093573093</v>
+        <v>0.0003815932141151279</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.01038288325071335</v>
+        <v>0.001120291068218648</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.007498625665903091</v>
+        <v>0.00108147703576833</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.003713449463248253</v>
+        <v>0.003734180238097906</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.01799369789659977</v>
+        <v>0.007894637063145638</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.02222002111375332</v>
+        <v>0.001156045356765389</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.04850289225578308</v>
+        <v>0.003563028061762452</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.002657733857631683</v>
+        <v>0.0002066822489723563</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.00762465875595808</v>
+        <v>0.0048289829865098</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.009375330992043018</v>
+        <v>0.003033931832760572</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0001138616935350001</v>
+        <v>0.01060706377029419</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.01443218067288399</v>
+        <v>0.003178103361278772</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0034108548425138</v>
+        <v>4.19979878643062e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01761877350509167</v>
+        <v>0.002386379288509488</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.007202235516160727</v>
+        <v>0.007700564339756966</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.01132558006793261</v>
+        <v>0.001805060426704586</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.004343259148299694</v>
+        <v>0.007746320683509111</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.02578085288405418</v>
+        <v>0.01201037876307964</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.001755537814460695</v>
+        <v>0.0003270056913606822</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.005803909618407488</v>
+        <v>0.00173860031645745</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.002433487446978688</v>
+        <v>0.003566642757505178</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.002437264192849398</v>
+        <v>0.00309512228704989</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01233268342912197</v>
+        <v>0.003044846933335066</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01344677153974771</v>
+        <v>0.005026108585298061</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0276792123913765</v>
+        <v>0.002052502939477563</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.004725042730569839</v>
+        <v>0.002530086087062955</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.002991660963743925</v>
+        <v>0.0009943443583324552</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.005596074275672436</v>
+        <v>0.0019066222012043</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0006377755780704319</v>
+        <v>0.001240032725036144</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.006694536656141281</v>
+        <v>0.001971015706658363</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.006545502226799726</v>
+        <v>0.002350528491660953</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.02491559088230133</v>
+        <v>0.004107744432985783</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0102726761251688</v>
+        <v>0.001845373073592782</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.03708802536129951</v>
+        <v>4.103269020561129e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.001556354574859142</v>
+        <v>0.002355578122660518</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.00199930602684617</v>
+        <v>0.008017970249056816</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.01862576976418495</v>
+        <v>0.003882249118760228</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0002314431476406753</v>
+        <v>0.001702036708593369</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.003242109436541796</v>
+        <v>0.001915368833579123</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.001501898746937513</v>
+        <v>0.001959143904969096</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.01504774391651154</v>
+        <v>0.00245570600964129</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.003088792087510228</v>
+        <v>0.001492974581196904</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.01994844526052475</v>
+        <v>0.001297491602599621</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.002906122244894505</v>
+        <v>0.001331371255218983</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.007184942252933979</v>
+        <v>0.001779967220500112</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.001738027203828096</v>
+        <v>0.001749317394569516</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.00676168454810977</v>
+        <v>0.004513854160904884</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.009718266315758228</v>
+        <v>0.0008694101125001907</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.007482335437089205</v>
+        <v>0.0001157112783403136</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.01693198643624783</v>
+        <v>0.001262540463358164</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.03214763477444649</v>
+        <v>0.002070171060040593</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.01496968138962984</v>
+        <v>0.001139045925810933</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.009071699343621731</v>
+        <v>0.001173903001472354</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.02495885267853737</v>
+        <v>0.001246217871084809</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.005570727866142988</v>
+        <v>0.001997432671487331</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.003142152912914753</v>
+        <v>0.001738139661028981</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.002663604449480772</v>
+        <v>0.001271712593734264</v>
       </c>
       <c r="CX5" t="n">
-        <v>7.941422518342733e-05</v>
+        <v>0.000741566822398454</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.01555421017110348</v>
+        <v>0.001598072936758399</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.001550137414596975</v>
+        <v>0.001027798047289252</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.02117060869932175</v>
+        <v>0.0006668125279247761</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.004425656981766224</v>
+        <v>0.0006105287466198206</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0066172881051898</v>
+        <v>0.001572398585267365</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.002090523950755596</v>
+        <v>0.00226239301264286</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.007403871975839138</v>
+        <v>0.0004981120582669973</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.004624394699931145</v>
+        <v>0.009368604049086571</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.006401755381375551</v>
+        <v>0.002574211219325662</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.001281810458749533</v>
+        <v>0.0006808270700275898</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.006419413723051548</v>
+        <v>0.001068280311301351</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.01503014005720615</v>
+        <v>0.008233994245529175</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.01503260713070631</v>
+        <v>0.008972295559942722</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.01589186117053032</v>
+        <v>0.0008342977962456644</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.00708296662196517</v>
+        <v>0.003051071427762508</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.00564264040440321</v>
+        <v>0.001741949934512377</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.006681651342660189</v>
+        <v>0.001540759578347206</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0002013511257246137</v>
+        <v>0.002523801987990737</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.01295336522161961</v>
+        <v>0.0009712696773931384</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.01248839870095253</v>
+        <v>0.003914644476026297</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.005214213393628597</v>
+        <v>0.0004152602341491729</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.001462092157453299</v>
+        <v>0.001759147387929261</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.009457344189286232</v>
+        <v>0.00172768859192729</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.008797090500593185</v>
+        <v>0.001495817909017205</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.003204589243978262</v>
+        <v>0.000392443296732381</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0003157305181957781</v>
+        <v>0.0009419170091859996</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.007617993745952845</v>
+        <v>0.001476528472267091</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0022651432082057</v>
+        <v>0.00124642881564796</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01402841508388519</v>
+        <v>0.001058856141753495</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.01582439243793488</v>
+        <v>0.005374090280383825</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.001607531565241516</v>
+        <v>0.0007155067287385464</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.002217928180471063</v>
+        <v>0.00337681220844388</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.008095171302556992</v>
+        <v>0.002490571467205882</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.003979245666414499</v>
+        <v>0.001736027537845075</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.007776457816362381</v>
+        <v>7.315236143767834e-05</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.002684856066480279</v>
+        <v>0.002308588474988937</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.02237139642238617</v>
+        <v>0.003178675659000874</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.005629570223391056</v>
+        <v>0.0009842318249866366</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.02168342098593712</v>
+        <v>0.0007991641759872437</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.008013605140149593</v>
+        <v>0.001256013638339937</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.004937103949487209</v>
+        <v>0.001997646177187562</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0040895682759583</v>
+        <v>0.002818765351548791</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.008948675356805325</v>
+        <v>0.001757323043420911</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.005916618276387453</v>
+        <v>0.0001445430680178106</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.005323166493326426</v>
+        <v>0.002306522335857153</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.007089677266776562</v>
+        <v>0.001494530588388443</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.001206591026857495</v>
+        <v>0.0007419649627991021</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0001432354329153895</v>
+        <v>0.001319774193689227</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.008741993457078934</v>
+        <v>0.001103530172258615</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.007655050605535507</v>
+        <v>0.006214048247784376</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.003865032223984599</v>
+        <v>0.001991725992411375</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.000295738223940134</v>
+        <v>0.001452627824619412</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.001296072849072516</v>
+        <v>0.001592902699485421</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.00253838044591248</v>
+        <v>0.00154184503480792</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.01237557362765074</v>
+        <v>0.001866506529040635</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.002490587066859007</v>
+        <v>0.0005422310205176473</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0174049511551857</v>
+        <v>0.001184811932034791</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.006365757901221514</v>
+        <v>0.0008188174688257277</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.006844043731689453</v>
+        <v>0.00116415461525321</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.002172111533582211</v>
+        <v>0.002534416504204273</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.002691461471840739</v>
+        <v>0.0001131428289227188</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.001976378727704287</v>
+        <v>0.001397060579620302</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.006994293536990881</v>
+        <v>0.0006015376420691609</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.02830875292420387</v>
+        <v>0.003874579211696982</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.002189213177189231</v>
+        <v>0.001191784162074327</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.01152997463941574</v>
+        <v>0.002019021427258849</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.00411961367353797</v>
+        <v>6.285299605224282e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.008177768439054489</v>
+        <v>0.0006316401995718479</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.008780879899859428</v>
+        <v>0.003259875345975161</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.007987746968865395</v>
+        <v>0.004157811403274536</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.005049478728324175</v>
+        <v>0.004166671074926853</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001630731159821153</v>
+        <v>0.007998150773346424</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.01081617828458548</v>
+        <v>0.003353392239660025</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.007474478334188461</v>
+        <v>0.0009416175307705998</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.04283465817570686</v>
+        <v>0.004723747260868549</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.0181462001055479</v>
+        <v>0.0006176097085699439</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.02553112804889679</v>
+        <v>0.0005001265089958906</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.001533970236778259</v>
+        <v>0.003077492583543062</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.004507584497332573</v>
+        <v>0.001457139616832137</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.0005891700857318938</v>
+        <v>0.001712103839963675</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.005664179567247629</v>
+        <v>0.002562878886237741</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.005637684371322393</v>
+        <v>0.003095895750448108</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.001722425455227494</v>
+        <v>0.005141093861311674</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.003035745583474636</v>
+        <v>0.004353445954620838</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.001924833748489618</v>
+        <v>0.0007608864107169211</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.009468823671340942</v>
+        <v>0.002503447700291872</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.007757131010293961</v>
+        <v>0.001350847538560629</v>
       </c>
     </row>
     <row r="6">
@@ -3849,5123 +3849,5123 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.006390664726495743</v>
+        <v>0.0002305226516909897</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003001721110194921</v>
+        <v>0.02591975033283234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003308190498501062</v>
+        <v>0.002964208135381341</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009689163416624069</v>
+        <v>0.01103102043271065</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01259455271065235</v>
+        <v>0.007654672488570213</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05116865038871765</v>
+        <v>0.01059658825397491</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01190564967691898</v>
+        <v>5.991174839437008e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01426312793046236</v>
+        <v>0.0004011260461993515</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002766991965472698</v>
+        <v>0.003517847042530775</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007288540713489056</v>
+        <v>0.002481943927705288</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0063280388712883</v>
+        <v>0.02020467817783356</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003768026595935225</v>
+        <v>0.0004763688193634152</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001269699190743268</v>
+        <v>0.009984005242586136</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009482990950345993</v>
+        <v>0.005820697639137506</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05528223887085915</v>
+        <v>0.0115693137049675</v>
       </c>
       <c r="P7" t="n">
-        <v>0.008470707572996616</v>
+        <v>0.0006247751880437136</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.00662317406386137</v>
+        <v>0.003818530589342117</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0009354595094919205</v>
+        <v>0.002875155536457896</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01296787057071924</v>
+        <v>0.000512082944624126</v>
       </c>
       <c r="T7" t="n">
-        <v>0.005845779087394476</v>
+        <v>0.003484508721157908</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001475327648222446</v>
+        <v>3.18642778438516e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004343839827924967</v>
+        <v>0.003992524463683367</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002419556258246303</v>
+        <v>0.000981654622592032</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01557462848722935</v>
+        <v>0.004292549565434456</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004469511099159718</v>
+        <v>0.001084394403733313</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.004557258915156126</v>
+        <v>0.002377431374043226</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001417194842360914</v>
+        <v>0.0006237121415324509</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.005537187214940786</v>
+        <v>0.001133088837377727</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.008275570347905159</v>
+        <v>0.003494084347039461</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.003917200025171041</v>
+        <v>0.0001294114335905761</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0006909593939781189</v>
+        <v>0.001059632981196046</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02171379514038563</v>
+        <v>0.001896170433610678</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.009759520180523396</v>
+        <v>0.002392061986029148</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0002122233272530138</v>
+        <v>0.0001919904025271535</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.01116852648556232</v>
+        <v>0.001529967645183206</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.008365510031580925</v>
+        <v>0.001687875483185053</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.003241700120270252</v>
+        <v>0.00414492329582572</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.001101924572139978</v>
+        <v>0.002921930979937315</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.009524425491690636</v>
+        <v>0.0005599282449111342</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.003114370396360755</v>
+        <v>0.001985823269933462</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.004839144647121429</v>
+        <v>9.716231579659507e-05</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.00156137312296778</v>
+        <v>0.002262579975649714</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0003189036797266454</v>
+        <v>0.0009758750675246119</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.001085679512470961</v>
+        <v>0.00176558957900852</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.004097356460988522</v>
+        <v>0.002155072055757046</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.006765627302229404</v>
+        <v>0.001722238725051284</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0050188098102808</v>
+        <v>0.01962291821837425</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.006167255342006683</v>
+        <v>0.001283221645280719</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.01342477183789015</v>
+        <v>0.002489314647391438</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.001383081078529358</v>
+        <v>0.001526581821963191</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.02161083742976189</v>
+        <v>0.003507186658680439</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.001411285833455622</v>
+        <v>0.003544511506333947</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.001847113482654095</v>
+        <v>0.001344577292911708</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.002271974924951792</v>
+        <v>0.001337859896011651</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0006857889238744974</v>
+        <v>0.0006824795855209231</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0007646319572813809</v>
+        <v>0.007715879008173943</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.005723404698073864</v>
+        <v>0.006105320993810892</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.00707786763086915</v>
+        <v>0.001528706983663142</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.008989992551505566</v>
+        <v>0.008416094817221165</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.009726841934025288</v>
+        <v>0.006590681150555611</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.005381908267736435</v>
+        <v>0.002593263285234571</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.00119486078619957</v>
+        <v>0.00587500398978591</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.001616624183952808</v>
+        <v>0.003528423141688108</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0005161686567589641</v>
+        <v>0.003397752065211535</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0009450913057662547</v>
+        <v>0.006745063234120607</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.004189938772469759</v>
+        <v>0.002706324914470315</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.003977528773248196</v>
+        <v>0.0002111001231241971</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.01016579568386078</v>
+        <v>0.002674374729394913</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.005363817792385817</v>
+        <v>0.002090086927637458</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0006164256483316422</v>
+        <v>0.0007188342278823256</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.005359573289752007</v>
+        <v>0.0009678379283286631</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.002596393693238497</v>
+        <v>0.000666483654640615</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.008422046899795532</v>
+        <v>0.001801370410248637</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.00105080648791045</v>
+        <v>0.01037179958075285</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0006553567945957184</v>
+        <v>0.003848119871690869</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.002718182979151607</v>
+        <v>0.003100050846114755</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.004521568305790424</v>
+        <v>0.0003753661003429443</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.01937900111079216</v>
+        <v>0.001479137688875198</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0007776095299050212</v>
+        <v>9.158439934253693e-05</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.005389007739722729</v>
+        <v>0.000318586069624871</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.005482807289808989</v>
+        <v>0.001289917854592204</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0007005518418736756</v>
+        <v>0.0005126291653141379</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.001169029972516</v>
+        <v>0.003597656032070518</v>
       </c>
       <c r="CF7" t="n">
-        <v>4.875840386375785e-05</v>
+        <v>0.001819856464862823</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.003365738550201058</v>
+        <v>0.0008356707403436303</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.002054754411801696</v>
+        <v>0.0006827133474871516</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.008588152006268501</v>
+        <v>0.001851171371527016</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0002539189881645143</v>
+        <v>0.001335377455689013</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.001550910179503262</v>
+        <v>0.0008071984630078077</v>
       </c>
       <c r="CL7" t="n">
-        <v>8.336512837558985e-05</v>
+        <v>0.0007667681202292442</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.006690923124551773</v>
+        <v>0.004750375635921955</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0008897334919311106</v>
+        <v>0.00450605945661664</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.009908171370625496</v>
+        <v>0.0009388506878167391</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.006324158981442451</v>
+        <v>0.004913191311061382</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.001080989139154553</v>
+        <v>0.002690080320462584</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.009746630676090717</v>
+        <v>0.0006899146246723831</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.00736489612609148</v>
+        <v>0.003405640367418528</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.002803343115374446</v>
+        <v>0.003404007758945227</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.005679124500602484</v>
+        <v>9.099887392949313e-05</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.002271985169500113</v>
+        <v>6.558626773767173e-05</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0009187897085212171</v>
+        <v>0.002744009252637625</v>
       </c>
       <c r="CX7" t="n">
-        <v>9.606310050003231e-05</v>
+        <v>0.002449752762913704</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.003365370677784085</v>
+        <v>0.001929632504470646</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.004008406773209572</v>
+        <v>0.0003874437825288624</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.01013117656111717</v>
+        <v>0.002244707196950912</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.0005580651923082769</v>
+        <v>0.0008806592668406665</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.00459012296050787</v>
+        <v>0.001207828754559159</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0002291765995323658</v>
+        <v>0.00030460802372545</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.01096421293914318</v>
+        <v>0.001680861110799015</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.004314146004617214</v>
+        <v>0.002896798308938742</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0097160954028368</v>
+        <v>0.001603025826625526</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.00559250870719552</v>
+        <v>0.007152703125029802</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0005027542356401682</v>
+        <v>0.002826693467795849</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.003462084569036961</v>
+        <v>0.001436923164874315</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.008363300934433937</v>
+        <v>0.004256211686879396</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.00078990263864398</v>
+        <v>0.0003817597171291709</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.008949281647801399</v>
+        <v>0.004896678496152163</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.004195446614176035</v>
+        <v>0.0005639145383611321</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.001699961721897125</v>
+        <v>0.0009683734970167279</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.002470620907843113</v>
+        <v>0.002298608887940645</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.003408930962905288</v>
+        <v>0.0006350595504045486</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.001553029869683087</v>
+        <v>0.0001818893069867045</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.003688461845740676</v>
+        <v>0.0009890539804473519</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.003287411294877529</v>
+        <v>0.001452216180041432</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.005224847234785557</v>
+        <v>0.001329857273958623</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0001841690391302109</v>
+        <v>0.001376645173877478</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.004629820119589567</v>
+        <v>0.0002109005290549248</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0007131348829716444</v>
+        <v>2.172720269300044e-05</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0008245374192483723</v>
+        <v>0.003061129245907068</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.002913318574428558</v>
+        <v>0.002462179632857442</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.001483964966610074</v>
+        <v>0.001519001321867108</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0001004145597107708</v>
+        <v>0.000837286002933979</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.003287666477262974</v>
+        <v>0.0001867151877377182</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.007663308642804623</v>
+        <v>0.001080015557818115</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.001734037417918444</v>
+        <v>0.0001221637648995966</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.000848843134008348</v>
+        <v>3.447302151471376e-05</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.006980141624808311</v>
+        <v>0.002298825886100531</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.0003189038252457976</v>
+        <v>0.0005543503211811185</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.003131889505311847</v>
+        <v>0.0002143732272088528</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.00891565065830946</v>
+        <v>0.0003993004793301225</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.01021932810544968</v>
+        <v>0.001739312312565744</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.0004421001067385077</v>
+        <v>0.001777115510776639</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.002405920065939426</v>
+        <v>0.001048268866725266</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.001785418135114014</v>
+        <v>0.0004304421017877758</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0003245280240662396</v>
+        <v>0.0009145438671112061</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0002305176749359816</v>
+        <v>0.0002174805558752269</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.001246252097189426</v>
+        <v>0.002246755175292492</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.002686920110136271</v>
+        <v>0.0009500464075244963</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0009131560800597072</v>
+        <v>0.0009768323507159948</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.009175884537398815</v>
+        <v>0.004414538852870464</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0006301247049123049</v>
+        <v>0.001123025896959007</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.00319281592965126</v>
+        <v>0.005336962174624205</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.007292597088962793</v>
+        <v>0.00166522164363414</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0003836452378891408</v>
+        <v>1.697090920060873e-05</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.0007963944226503372</v>
+        <v>0.002417345996946096</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.000638374243862927</v>
+        <v>0.001373340026475489</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.003742688801139593</v>
+        <v>0.001242064172402024</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.003934260457754135</v>
+        <v>0.0006948152440600097</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.008741132915019989</v>
+        <v>0.002206109929829836</v>
       </c>
       <c r="FD7" t="n">
-        <v>2.790283178910613e-05</v>
+        <v>0.001527392887510359</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.003817830001935363</v>
+        <v>0.0005291773704811931</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.001139895291998982</v>
+        <v>0.00107487675268203</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.002727675717324018</v>
+        <v>0.0008736710879020393</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.0003434718237258494</v>
+        <v>0.002253334270790219</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.005040509160608053</v>
+        <v>0.00181154441088438</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.001350701204501092</v>
+        <v>0.005342365242540836</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.005280972924083471</v>
+        <v>0.002177741145715117</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.006900380831211805</v>
+        <v>0.0008171203080564737</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.001046147779561579</v>
+        <v>0.001626315526664257</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.005787795409560204</v>
+        <v>0.001605382072739303</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.005183606874197721</v>
+        <v>0.0005224051419645548</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.01527370512485504</v>
+        <v>0.00144912744872272</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.002629755297675729</v>
+        <v>0.007958345115184784</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.002808278659358621</v>
+        <v>0.0001769606315065175</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0035945032723248</v>
+        <v>0.004264445975422859</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0004726024344563484</v>
+        <v>0.00442289374768734</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.02043659240007401</v>
+        <v>0.002393146743997931</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.003068214748054743</v>
+        <v>0.005945638287812471</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.001439178828150034</v>
+        <v>0.001693196129053831</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.00317756668664515</v>
+        <v>0.002198722679167986</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.002661599777638912</v>
+        <v>0.003157841041684151</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.001077122404240072</v>
+        <v>0.001139731728471816</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.0009113921551033854</v>
+        <v>0.001243138452991843</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.001745980000123382</v>
+        <v>7.077452028170228e-05</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.004625366069376469</v>
+        <v>0.0006037211278453469</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.002299714600667357</v>
+        <v>0.002839240478351712</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0004581715329550207</v>
+        <v>0.00776763679459691</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.006699726916849613</v>
+        <v>0.002180211944505572</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.003911492414772511</v>
+        <v>0.0003963765338994563</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.007648087106645107</v>
+        <v>0.002000725595280528</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0629010796546936</v>
+        <v>0.04919452220201492</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02325259149074554</v>
+        <v>0.004234264604747295</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01287713926285505</v>
+        <v>0.02677931264042854</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05203037708997726</v>
+        <v>0.00499558774754405</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1445955634117126</v>
+        <v>0.005032177083194256</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008307922631502151</v>
+        <v>0.005122170317918062</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04227171093225479</v>
+        <v>0.002348866546526551</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02683323062956333</v>
+        <v>0.002524204785004258</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001113060163334012</v>
+        <v>0.007250350899994373</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07783022522926331</v>
+        <v>0.03900377824902534</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02094406634569168</v>
+        <v>0.003175024874508381</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0008950661867856979</v>
+        <v>0.02515428699553013</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0470784492790699</v>
+        <v>0.006949150934815407</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1602221876382828</v>
+        <v>0.006400128826498985</v>
       </c>
       <c r="P8" t="n">
-        <v>0.006149006076157093</v>
+        <v>0.003383883973583579</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01030112244188786</v>
+        <v>0.005286268424242735</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02526871487498283</v>
+        <v>0.003237666329368949</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01755528897047043</v>
+        <v>0.001771731767803431</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02154480665922165</v>
+        <v>0.007612388115376234</v>
       </c>
       <c r="U8" t="n">
-        <v>0.005821006838232279</v>
+        <v>0.0007964872638694942</v>
       </c>
       <c r="V8" t="n">
-        <v>0.009168321266770363</v>
+        <v>0.003717465326189995</v>
       </c>
       <c r="W8" t="n">
-        <v>0.008907366544008255</v>
+        <v>2.914073411375284e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04970757663249969</v>
+        <v>0.003985132556408644</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01554127503186464</v>
+        <v>0.005290789064019918</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02206582948565483</v>
+        <v>0.004468716215342283</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.005363748408854008</v>
+        <v>0.003908767830580473</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01499415561556816</v>
+        <v>0.005429981276392937</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01264381781220436</v>
+        <v>0.004918498452752829</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01741113141179085</v>
+        <v>0.001378222834318876</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.005984758026897907</v>
+        <v>0.002433347748592496</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.05814977362751961</v>
+        <v>0.001518549048341811</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.02474724873900414</v>
+        <v>0.001536541851237416</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.001619591028429568</v>
+        <v>0.002891777083277702</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0272113885730505</v>
+        <v>0.0005698084132745862</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.003377945628017187</v>
+        <v>0.002329850802198052</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.006167076993733644</v>
+        <v>0.003013553563505411</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.011338721960783</v>
+        <v>0.006947053130716085</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.001815485069528222</v>
+        <v>0.000644580228254199</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.004051299765706062</v>
+        <v>0.001396955805830657</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.01090436615049839</v>
+        <v>0.000634140451438725</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.01311281230300665</v>
+        <v>0.002713919384405017</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.006438424810767174</v>
+        <v>0.002128170104697347</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0007297194097191095</v>
+        <v>0.003044873476028442</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.01477836072444916</v>
+        <v>0.002790910424664617</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.008841391652822495</v>
+        <v>0.00439919251948595</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0528874546289444</v>
+        <v>0.03131752461194992</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.009808184579014778</v>
+        <v>0.0009077697759494185</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.01560050062835217</v>
+        <v>0.007740217726677656</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.000742495758458972</v>
+        <v>0.0004749720683321357</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.06390797346830368</v>
+        <v>0.002046076580882072</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.005519640166312456</v>
+        <v>0.00123137142509222</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0002107219770550728</v>
+        <v>0.001770442584529519</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.001927541103214025</v>
+        <v>0.003691257443279028</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.01085442490875721</v>
+        <v>0.001366275595501065</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.006031310185790062</v>
+        <v>0.009072870947420597</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.01733383536338806</v>
+        <v>0.0074206767603755</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.01957578957080841</v>
+        <v>0.004243963863700628</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.01628356613218784</v>
+        <v>0.0123095540329814</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.02312885224819183</v>
+        <v>0.002302538370713592</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.01461788825690746</v>
+        <v>0.005634299013763666</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.02435922250151634</v>
+        <v>0.004597354214638472</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.001691012643277645</v>
+        <v>0.001646205550059676</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.00385873974300921</v>
+        <v>0.006644865032285452</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.01922428794205189</v>
+        <v>0.001125284121371806</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01410153042525053</v>
+        <v>0.0008583067683503032</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.006609588395804167</v>
+        <v>0.0002881232067011297</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.02945839799940586</v>
+        <v>0.0009263696847483516</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.01566784083843231</v>
+        <v>0.003795306663960218</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.001858101459220052</v>
+        <v>0.0002478612295817584</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.01695632375776768</v>
+        <v>0.001282956684008241</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.002797406166791916</v>
+        <v>0.001893924083560705</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.002094876021146774</v>
+        <v>0.004821078851819038</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.03016969189047813</v>
+        <v>0.01756571047008038</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.01525904610753059</v>
+        <v>0.003208546666428447</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.003635274944826961</v>
+        <v>0.006986770778894424</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.01637913100421429</v>
+        <v>0.002668232657015324</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.04615239053964615</v>
+        <v>0.001446028938516974</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.01010917220264673</v>
+        <v>0.002470499603077769</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.01063231192529202</v>
+        <v>0.001917541376315057</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.02448309771716595</v>
+        <v>0.003567748935893178</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0004754486726596951</v>
+        <v>0.001899268012493849</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.0142371105030179</v>
+        <v>0.006935962475836277</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.003094476414844394</v>
+        <v>0.002444121753796935</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.004839119501411915</v>
+        <v>0.003349059959873557</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.01217355765402317</v>
+        <v>0.002238468267023563</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.02555943839251995</v>
+        <v>0.001707536750473082</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.001360424677841365</v>
+        <v>0.00156904780305922</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.001676315092481673</v>
+        <v>0.0005554604576900601</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.007769882213324308</v>
+        <v>0.001943090348504484</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.003132468555122614</v>
+        <v>0.007794519420713186</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.001195034943521023</v>
+        <v>0.001343509880825877</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.02223761193454266</v>
+        <v>0.0004882487410213798</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.009187406860291958</v>
+        <v>0.006005109753459692</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.001499328762292862</v>
+        <v>0.003926186356693506</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.02900971472263336</v>
+        <v>0.00276088947430253</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.004376458935439587</v>
+        <v>0.004386868327856064</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.002770387334749103</v>
+        <v>0.005203157663345337</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.002857527462765574</v>
+        <v>0.001466615940444171</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.003935597371309996</v>
+        <v>0.0009522681357339025</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.01192851923406124</v>
+        <v>0.007195484824478626</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.003098974470049143</v>
+        <v>0.002949450630694628</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.00593232549726963</v>
+        <v>0.004587253555655479</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.0123404823243618</v>
+        <v>0.002109887544065714</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.02548569813370705</v>
+        <v>0.002403771271929145</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.004287279676645994</v>
+        <v>0.001455234130844474</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.008869254030287266</v>
+        <v>0.001350851729512215</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.007348694838583469</v>
+        <v>0.0009406751487404108</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.0139288417994976</v>
+        <v>0.002669423585757613</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.00385768641717732</v>
+        <v>0.007481983397156</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.01477921567857265</v>
+        <v>0.0006076463032513857</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.005700429901480675</v>
+        <v>0.01283627096563578</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.03044489212334156</v>
+        <v>3.636180190369487e-05</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.0005918554961681366</v>
+        <v>0.002012860029935837</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0219267550855875</v>
+        <v>0.004161264281719923</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.01595393568277359</v>
+        <v>0.00026441685622558</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.02056192606687546</v>
+        <v>0.0002275498700328171</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.004362931940704584</v>
+        <v>0.002287356182932854</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.006644595880061388</v>
+        <v>0.001075438805855811</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.00615200400352478</v>
+        <v>0.002802297240123153</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.01093482598662376</v>
+        <v>7.185405411291867e-05</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.006410060450434685</v>
+        <v>0.005813125986605883</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.00649519357830286</v>
+        <v>0.005629499442875385</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.008235394954681396</v>
+        <v>0.000796753796748817</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0005561328725889325</v>
+        <v>0.002211227314546704</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0002927315654233098</v>
+        <v>0.003536834847182035</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.002022579777985811</v>
+        <v>0.0009551700786687434</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0008337317267432809</v>
+        <v>0.001444340567104518</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.00799106527119875</v>
+        <v>0.004016670398414135</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.004435316659510136</v>
+        <v>0.003667176235467196</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.002147543942555785</v>
+        <v>0.003839637851342559</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.001712119439616799</v>
+        <v>0.0004207643214613199</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.001046173856593668</v>
+        <v>0.001840493525378406</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.006580675020813942</v>
+        <v>0.001427902840077877</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.006463865749537945</v>
+        <v>0.001584479119628668</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.004949088208377361</v>
+        <v>0.0003646934637799859</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.0186446737498045</v>
+        <v>0.005229957867413759</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.003727656090632081</v>
+        <v>0.002946158405393362</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0006955410353839397</v>
+        <v>0.00277290865778923</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.03413195535540581</v>
+        <v>0.002279456006363034</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.03098426014184952</v>
+        <v>0.004782558418810368</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.003545000217854977</v>
+        <v>0.001464216620661318</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.01885503530502319</v>
+        <v>0.0005272967973724008</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.01753070764243603</v>
+        <v>0.000770365702919662</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.003544184844940901</v>
+        <v>0.0001447953982278705</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.007229418959468603</v>
+        <v>0.005699532572180033</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.009311151690781116</v>
+        <v>0.004744760226458311</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.005709170363843441</v>
+        <v>0.00170671462547034</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.01079419907182455</v>
+        <v>0.001773892086930573</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.01883729547262192</v>
+        <v>0.007020140998065472</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.004725530277937651</v>
+        <v>0.003793716197833419</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0009517504367977381</v>
+        <v>0.004312335979193449</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.01677020452916622</v>
+        <v>0.0005052594933658838</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.001708852825686336</v>
+        <v>0.0001745438203215599</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.01423163153231144</v>
+        <v>0.007586750201880932</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.006327001843601465</v>
+        <v>0.001467097899876535</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.008324477821588516</v>
+        <v>0.004215617664158344</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.01211951393634081</v>
+        <v>0.00226190872490406</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.02511069551110268</v>
+        <v>0.002569385338574648</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.00329488655552268</v>
+        <v>0.002320849103853106</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.006769299507141113</v>
+        <v>0.0006447762716561556</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.008023866452276707</v>
+        <v>0.001888980623334646</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.004576480947434902</v>
+        <v>0.0005175230908207595</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.01842385716736317</v>
+        <v>0.005061819683760405</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.02830878458917141</v>
+        <v>0.001149943447671831</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.00337351649068296</v>
+        <v>0.004566723946481943</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.02751250006258488</v>
+        <v>0.003066473873332143</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.01328640896826982</v>
+        <v>0.001808207714930177</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.004218655172735453</v>
+        <v>0.000766958633903414</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.005788796115666628</v>
+        <v>0.00157778081484139</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.0240953303873539</v>
+        <v>0.001848100800998509</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.006106654182076454</v>
+        <v>0.00111759826540947</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.0252867080271244</v>
+        <v>0.00893778633326292</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.001859916374087334</v>
+        <v>0.005628736224025488</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.01941545307636261</v>
+        <v>0.00428833207115531</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.006240347400307655</v>
+        <v>8.862081449478865e-05</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.04157146438956261</v>
+        <v>0.0001069401478162035</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.001519710058346391</v>
+        <v>0.0005431452300399542</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.01006117090582848</v>
+        <v>0.0003408840857446194</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.01306283101439476</v>
+        <v>0.002472540363669395</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.005097354762256145</v>
+        <v>0.005826880224049091</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.003883267054334283</v>
+        <v>0.001520252088084817</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.000902670668438077</v>
+        <v>0.0003470866358838975</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0002691486151888967</v>
+        <v>0.0005025948630645871</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.00182753661647439</v>
+        <v>0.004655671771615744</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.005329078063368797</v>
+        <v>0.003761880565434694</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.003477244172245264</v>
+        <v>0.01334268692880869</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.01707444526255131</v>
+        <v>0.001965942094102502</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.00371639197692275</v>
+        <v>0.002641458762809634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01603477261960506</v>
+        <v>0.002570009790360928</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02448727563023567</v>
+        <v>0.03030559979379177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03776435181498528</v>
+        <v>0.001856266404502094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0236738882958889</v>
+        <v>0.0141471903771162</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01774052530527115</v>
+        <v>0.005802799016237259</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1032597422599792</v>
+        <v>0.01856832951307297</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02543082274496555</v>
+        <v>0.0002480364637449384</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06972800195217133</v>
+        <v>0.008455804549157619</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02816875278949738</v>
+        <v>0.00204548891633749</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01438829675316811</v>
+        <v>0.006684280931949615</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02725917287170887</v>
+        <v>0.02421852573752403</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03772726282477379</v>
+        <v>0.0006107030785642564</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01362518593668938</v>
+        <v>0.01228618435561657</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01717802137136459</v>
+        <v>0.004272749647498131</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1040481701493263</v>
+        <v>0.01975871995091438</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02261262945830822</v>
+        <v>0.00091352011077106</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0601474940776825</v>
+        <v>0.001375171006657183</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0309501476585865</v>
+        <v>0.002222781535238028</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01719745062291622</v>
+        <v>0.002324643544852734</v>
       </c>
       <c r="T9" t="n">
-        <v>0.005305023863911629</v>
+        <v>0.004974126350134611</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0003044302575290203</v>
+        <v>0.001367994351312518</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01007108204066753</v>
+        <v>0.002033147029578686</v>
       </c>
       <c r="W9" t="n">
-        <v>0.007714473642408848</v>
+        <v>0.001476934063248336</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03963986411690712</v>
+        <v>0.002958001801744103</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001178797800093889</v>
+        <v>0.003167935414239764</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.006740761920809746</v>
+        <v>0.002420217264443636</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.009688135236501694</v>
+        <v>0.003497333964332938</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.008779848925769329</v>
+        <v>0.0002905880101025105</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0137295825406909</v>
+        <v>0.003423130372539163</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.005330259911715984</v>
+        <v>0.000884783046785742</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01806117780506611</v>
+        <v>0.0003011600056197494</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.05167645215988159</v>
+        <v>0.0008915277430787683</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.005743944086134434</v>
+        <v>0.0005269481334835291</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0165108647197485</v>
+        <v>0.001201806589961052</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.01855298690497875</v>
+        <v>0.001748816343024373</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.004252190701663494</v>
+        <v>0.001392648089677095</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.001169745344668627</v>
+        <v>0.003077439032495022</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.01129583548754454</v>
+        <v>0.005078394897282124</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.01579101569950581</v>
+        <v>0.001714032143354416</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.008294680155813694</v>
+        <v>0.0001103724353015423</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.02345538139343262</v>
+        <v>0.001295947236940265</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.008546910248696804</v>
+        <v>0.003571874462068081</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.002652554772794247</v>
+        <v>0.0002567244227975607</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.003162607550621033</v>
+        <v>0.002631524112075567</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.00827639177441597</v>
+        <v>0.003479937091469765</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.005572021007537842</v>
+        <v>0.001958727603778243</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.00395100424066186</v>
+        <v>0.01904307305812836</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.03076548688113689</v>
+        <v>0.000969036715105176</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.006978206802159548</v>
+        <v>0.001669409684836864</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01976132951676846</v>
+        <v>0.001658741384744644</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.07123164087533951</v>
+        <v>0.01013669185340405</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.00600074790418148</v>
+        <v>0.0007285173633135855</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0279431939125061</v>
+        <v>0.004540163557976484</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.008966916240751743</v>
+        <v>0.005167839583009481</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.002809874946251512</v>
+        <v>0.002232047263532877</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.00536257540807128</v>
+        <v>0.005256694741547108</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.01670646481215954</v>
+        <v>0.00701706251129508</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.02210626378655434</v>
+        <v>0.002822049427777529</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.009302885271608829</v>
+        <v>0.008345764130353928</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.001225600019097328</v>
+        <v>0.003902360564097762</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.01388118974864483</v>
+        <v>0.001032209489494562</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.02432695962488651</v>
+        <v>0.004580094013363123</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.002309506759047508</v>
+        <v>0.0009519890882074833</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.007665436714887619</v>
+        <v>0.0001772297546267509</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.002376342192292213</v>
+        <v>0.002867842558771372</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.008669854141771793</v>
+        <v>0.002517201472073793</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.01308642141520977</v>
+        <v>0.002907036105170846</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01388746313750744</v>
+        <v>0.0001412501296726987</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.01302908640354872</v>
+        <v>0.001009199535474181</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.008520605973899364</v>
+        <v>0.001404659473337233</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.0004761163145303726</v>
+        <v>0.0002632112009450793</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.0003508059307932854</v>
+        <v>0.00213338783942163</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.01608791574835777</v>
+        <v>0.002069550799205899</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.001779239159077406</v>
+        <v>0.009887568652629852</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.002610662952065468</v>
+        <v>0.003068771911785007</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.005470697302371264</v>
+        <v>0.003215515520423651</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.005548190791159868</v>
+        <v>0.001992829144001007</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.0366891548037529</v>
+        <v>0.002939159981906414</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.01163123175501823</v>
+        <v>0.001207729568704963</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.02346346527338028</v>
+        <v>0.002524952171370387</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.01798959262669086</v>
+        <v>0.004290793091058731</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.001424061134457588</v>
+        <v>0.0008611426455900073</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.01784659549593925</v>
+        <v>0.004733387846499681</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.006732777692377567</v>
+        <v>0.003236833494156599</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.01359645277261734</v>
+        <v>0.002462973818182945</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0005227378569543362</v>
+        <v>0.001508660498075187</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.01954745687544346</v>
+        <v>0.003248493187129498</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.004100302699953318</v>
+        <v>0.001798459095880389</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01085962448269129</v>
+        <v>0.001183520071208477</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.005215893499553204</v>
+        <v>0.002080226317048073</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.01248102635145187</v>
+        <v>0.003578889649361372</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.007050503045320511</v>
+        <v>0.0004757258284371346</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.01081537269055843</v>
+        <v>0.001185274333693087</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.01526779308915138</v>
+        <v>0.003347714431583881</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.01876576989889145</v>
+        <v>0.001581230433657765</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.01578165590763092</v>
+        <v>0.002129680477082729</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.01318183355033398</v>
+        <v>0.004914704710245132</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.005408925004303455</v>
+        <v>0.004172645509243011</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0129865538328886</v>
+        <v>0.0003848952474072576</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.005762394517660141</v>
+        <v>0.0002339605707675219</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.01880558021366596</v>
+        <v>0.004357451573014259</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.006627372931689024</v>
+        <v>0.003141781548038125</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.01104709133505821</v>
+        <v>0.003738034050911665</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.0002751478459686041</v>
+        <v>0.00118546059820801</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.01998237706720829</v>
+        <v>0.003868651809170842</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.0006113405106589198</v>
+        <v>0.001698408741503954</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.01752137951552868</v>
+        <v>0.002777234185487032</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.004985985811799765</v>
+        <v>0.001041639246977866</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.02441751025617123</v>
+        <v>0.00244493642821908</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.007766157388687134</v>
+        <v>0.00426127202808857</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.001981549430638552</v>
+        <v>0.0009652138687670231</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.015288888476789</v>
+        <v>0.007247185800224543</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.001535930670797825</v>
+        <v>0.0002750838757492602</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.01283278036862612</v>
+        <v>0.001721733016893268</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.02091472037136555</v>
+        <v>0.002746703568845987</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.002333854557946324</v>
+        <v>0.002819347195327282</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.01136046927422285</v>
+        <v>0.0003386707685422152</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0171807985752821</v>
+        <v>0.000761725939810276</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.01173367537558079</v>
+        <v>0.0002066951856249943</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.003666105214506388</v>
+        <v>0.001253649243153632</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.01324533764272928</v>
+        <v>0.002548067830502987</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0008118863916024566</v>
+        <v>0.0002737458562478423</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.02153975516557693</v>
+        <v>0.001052819425240159</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.004066684748977423</v>
+        <v>0.001422148430719972</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.00647755665704608</v>
+        <v>0.001160231186076999</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.002178963040933013</v>
+        <v>0.003993713762611151</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.003829111810773611</v>
+        <v>0.001054214779287577</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.001742930617183447</v>
+        <v>0.001735443715006113</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.002762346528470516</v>
+        <v>0.005902024451643229</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.003207367844879627</v>
+        <v>0.0005662616458721459</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.00341851101256907</v>
+        <v>0.001217915560118854</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.00807788223028183</v>
+        <v>0.001889114268124104</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.0007972746388986707</v>
+        <v>0.0004604244895745069</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.002541101304814219</v>
+        <v>0.002333675511181355</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.002469174796715379</v>
+        <v>0.0007372885011136532</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.0101180225610733</v>
+        <v>0.001735932659357786</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.01912570185959339</v>
+        <v>0.003062334610149264</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.0003761040279641747</v>
+        <v>0.002233246807008982</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.01361826993525028</v>
+        <v>0.0001264181628357619</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.006064586341381073</v>
+        <v>0.0001606615260243416</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.01289874035865068</v>
+        <v>0.003665858646854758</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.001189178205095232</v>
+        <v>0.001971333054825664</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.01560869906097651</v>
+        <v>0.0001576323993504047</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.00794268399477005</v>
+        <v>0.0006188371917232871</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.008163790218532085</v>
+        <v>0.0005696727312169969</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.003895786590874195</v>
+        <v>0.002189045771956444</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.01502726133912802</v>
+        <v>0.003155430778861046</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.002887710696086287</v>
+        <v>0.001994834048673511</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.01428902335464954</v>
+        <v>0.003340501803904772</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.01420662552118301</v>
+        <v>0.005217219702899456</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.008942069485783577</v>
+        <v>0.003887758124619722</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.0006851471844129264</v>
+        <v>0.006383049301803112</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.006932728923857212</v>
+        <v>0.0009702060488052666</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.005263413768261671</v>
+        <v>8.802482625469565e-05</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.01580633223056793</v>
+        <v>0.004196236375719309</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.009229094721376896</v>
+        <v>0.002173182554543018</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.01292285323143005</v>
+        <v>0.00299219973385334</v>
       </c>
       <c r="FB9" t="n">
-        <v>7.558520883321762e-05</v>
+        <v>0.001987332012504339</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.02029230073094368</v>
+        <v>0.003130384953692555</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.002714452100917697</v>
+        <v>0.002728651510551572</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.01602338813245296</v>
+        <v>0.001787957036867738</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.004085512831807137</v>
+        <v>0.002102249534800649</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.001220716862007976</v>
+        <v>3.911597013939172e-05</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.02061767131090164</v>
+        <v>0.002690651454031467</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.006093122065067291</v>
+        <v>0.003949364181607962</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.009322192519903183</v>
+        <v>0.004389201756566763</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.01027948502451181</v>
+        <v>0.000261927314568311</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.009413456544280052</v>
+        <v>0.0009752654586918652</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.00442474102601409</v>
+        <v>0.000715685891918838</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.019681291654706</v>
+        <v>0.002774131717160344</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.01074617635458708</v>
+        <v>0.002431914210319519</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.003684689290821552</v>
+        <v>0.000747540092561394</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.01874272897839546</v>
+        <v>0.007618875242769718</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.004103841725736856</v>
+        <v>0.002431559842079878</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.02546906657516956</v>
+        <v>0.003906232537701726</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.006500641815364361</v>
+        <v>0.001658392138779163</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.04880821704864502</v>
+        <v>0.002407968742772937</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.01640245318412781</v>
+        <v>0.002849381882697344</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.01207888498902321</v>
+        <v>0.001830795546993613</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.01648595556616783</v>
+        <v>0.0002414631308056414</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.003200649050995708</v>
+        <v>0.004439528100192547</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.005828293971717358</v>
+        <v>0.001036608591675758</v>
       </c>
       <c r="GA9" t="n">
-        <v>9.599840268492699e-05</v>
+        <v>0.001714240177534521</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.01229097973555326</v>
+        <v>6.462544115493074e-05</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.003555440111085773</v>
+        <v>0.006709784734994173</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.008426854386925697</v>
+        <v>0.002878275234252214</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.01253543142229319</v>
+        <v>0.01389204058796167</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.01286269538104534</v>
+        <v>0.0009490991942584515</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.001947366748936474</v>
+        <v>0.00193269900046289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.004230306949466467</v>
+        <v>0.001700326567515731</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03520004451274872</v>
+        <v>0.007427787873893976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01415417995303869</v>
+        <v>0.0006777484668418765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009404662065207958</v>
+        <v>0.004780346993356943</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01673750579357147</v>
+        <v>0.000991511158645153</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06024963781237602</v>
+        <v>0.001449442468583584</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004475979134440422</v>
+        <v>0.000458496535429731</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02030589990317822</v>
+        <v>8.771946158958599e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006269385106861591</v>
+        <v>0.0005285241641104221</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0003998244646936655</v>
+        <v>0.002295357408002019</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03693768382072449</v>
+        <v>0.005197742022573948</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005991186946630478</v>
+        <v>0.00065421691397205</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00571824423968792</v>
+        <v>0.003514377865940332</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01370638236403465</v>
+        <v>0.001430485513992608</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05699582397937775</v>
+        <v>0.002568589989095926</v>
       </c>
       <c r="P10" t="n">
-        <v>0.004521721508353949</v>
+        <v>0.0008460800163447857</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.007427609991282225</v>
+        <v>0.001444778521545231</v>
       </c>
       <c r="R10" t="n">
-        <v>0.007024573162198067</v>
+        <v>0.0003428428899496794</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001496315933763981</v>
+        <v>5.570260691456497e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>0.010077896527946</v>
+        <v>0.001005993923172355</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004180369433015585</v>
+        <v>0.000447640719357878</v>
       </c>
       <c r="V10" t="n">
-        <v>0.006087263580411673</v>
+        <v>0.0007754446705803275</v>
       </c>
       <c r="W10" t="n">
-        <v>0.003564872546121478</v>
+        <v>0.0005758143379352987</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01781873404979706</v>
+        <v>0.0005651932442560792</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.008530862629413605</v>
+        <v>0.001364181167446077</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01540865749120712</v>
+        <v>0.0001954288309207186</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.002472399733960629</v>
+        <v>0.0008941266569308937</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0009650115389376879</v>
+        <v>0.0001768557704053819</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.002680209698155522</v>
+        <v>0.000561334250960499</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.007543004583567381</v>
+        <v>0.0001012962529785</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.008592200465500355</v>
+        <v>3.163837754982524e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.02732960134744644</v>
+        <v>0.0001373793202219531</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.005467325914651155</v>
+        <v>0.0002657523436937481</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.001038888934999704</v>
+        <v>0.0007702623261138797</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0148884579539299</v>
+        <v>0.000492806255351752</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.709938704967499e-06</v>
+        <v>0.0003336209338158369</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0004925299435853958</v>
+        <v>0.0007963640964590013</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.002055028453469276</v>
+        <v>0.00109203509055078</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.002399317920207977</v>
+        <v>0.0002913255011662841</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0007457180181518197</v>
+        <v>0.0002233302220702171</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.003303091274574399</v>
+        <v>6.921886961208656e-05</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.004632591269910336</v>
+        <v>0.0003653253661468625</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.001647217432036996</v>
+        <v>0.0005964116426184773</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001887116464786232</v>
+        <v>5.2416817197809e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.005310197826474905</v>
+        <v>0.0006836354732513428</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.007833045907318592</v>
+        <v>0.000129377847770229</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.01695901528000832</v>
+        <v>0.004630114883184433</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.01109792664647102</v>
+        <v>7.642401033081114e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.00705383624881506</v>
+        <v>0.001100725727155805</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0001075045438483357</v>
+        <v>0.0004161261895205826</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.03081999532878399</v>
+        <v>0.0002403093822067603</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.002445494523271918</v>
+        <v>0.0001780807651812211</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.003038129536435008</v>
+        <v>0.0006812413921579719</v>
       </c>
       <c r="BB10" t="n">
-        <v>5.773475277237594e-05</v>
+        <v>0.001045558252371848</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.007294217124581337</v>
+        <v>0.0009402488358318806</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.003836104879155755</v>
+        <v>0.001236802549101412</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.004520093556493521</v>
+        <v>0.001264640013687313</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.01601031422615051</v>
+        <v>0.0009692235616967082</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.001134510850533843</v>
+        <v>0.001684342161752284</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.009145324118435383</v>
+        <v>0.000469524587970227</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.008722920902073383</v>
+        <v>0.0004358409787528217</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.008150069043040276</v>
+        <v>0.001703759655356407</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.001505211228504777</v>
+        <v>0.0002079898258671165</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.006178303621709347</v>
+        <v>0.001063572941347957</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.008191240951418877</v>
+        <v>0.0005129054770804942</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.008089726790785789</v>
+        <v>0.0003241001686546952</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.004764886572957039</v>
+        <v>0.0004137679643463343</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.00690728472545743</v>
+        <v>0.0006422497099265456</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.00555114634335041</v>
+        <v>0.0001053761079674587</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.004057772923260927</v>
+        <v>0.0004663115541916341</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0038008913397789</v>
+        <v>0.0007481380016542971</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0009443163871765137</v>
+        <v>0.0001500171929365024</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.001757001504302025</v>
+        <v>6.63083337713033e-05</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.007194519974291325</v>
+        <v>0.00247100368142128</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.01071783248335123</v>
+        <v>0.000850339129101485</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.004262713249772787</v>
+        <v>0.0006594430888071656</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.009193127043545246</v>
+        <v>3.521972394082695e-05</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01886452361941338</v>
+        <v>0.0004066096153110266</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.002344612730666995</v>
+        <v>0.001024773344397545</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.003202637890353799</v>
+        <v>0.0001875452871900052</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.009784945286810398</v>
+        <v>0.0007389654056169093</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.001185866422019899</v>
+        <v>0.0003753561759367585</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.006852881982922554</v>
+        <v>0.001164154149591923</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0001034237648127601</v>
+        <v>0.0005415990017354488</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.002295640762895346</v>
+        <v>0.0003088768280576915</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.002696106443181634</v>
+        <v>0.0004120948433410376</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.01081378757953644</v>
+        <v>0.0004471933643799275</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.001614469685591757</v>
+        <v>0.0003515655407682061</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.002532313112169504</v>
+        <v>0.0001464069209760055</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.002560371765866876</v>
+        <v>0.0004931184812448919</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0007448766846209764</v>
+        <v>0.0005613274406641722</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.00562213035300374</v>
+        <v>9.164142102235928e-05</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.009308266453444958</v>
+        <v>2.063682040898129e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.01201096922159195</v>
+        <v>0.001588735962286592</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0003604283556342125</v>
+        <v>0.001300463220104575</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0106979925185442</v>
+        <v>0.0002103596634697169</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0003024349571205676</v>
+        <v>0.0009095710702240467</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.001180761260911822</v>
+        <v>0.0009495150879956782</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0009795899968594313</v>
+        <v>8.703242929186672e-05</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.002184372860938311</v>
+        <v>0.0002982495934702456</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.008056110702455044</v>
+        <v>0.001033029984682798</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.001118071144446731</v>
+        <v>0.0004297961131669581</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0002332407748326659</v>
+        <v>0.0007221322739496827</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.005007039289921522</v>
+        <v>0.0004904166562482715</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01125542353838682</v>
+        <v>0.0005453460034914315</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.002707794075831771</v>
+        <v>0.0003920095041394234</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.005702363327145576</v>
+        <v>0.0001984678528970107</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.002778545953333378</v>
+        <v>0.000275643658824265</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0002290657721459866</v>
+        <v>0.0005701272748410702</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.001315982663072646</v>
+        <v>0.000568169285543263</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.002920174971222878</v>
+        <v>0.001354641513898969</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.01012827455997467</v>
+        <v>0.003973149694502354</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0001208491157740355</v>
+        <v>0.001185130327939987</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.006887881085276604</v>
+        <v>0.0005342215299606323</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.01011485978960991</v>
+        <v>0.0001974476763280109</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.002991478890180588</v>
+        <v>0.001155172591097653</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.003425599075853825</v>
+        <v>0.0002480569528415799</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.006744101643562317</v>
+        <v>0.0005354080349206924</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.00460008904337883</v>
+        <v>0.0005604323814623058</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.002173089422285557</v>
+        <v>0.0005797920748591423</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.007496196310967207</v>
+        <v>0.0002752716827671975</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.004472714848816395</v>
+        <v>0.00114341510925442</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.003655510721728206</v>
+        <v>0.0007443670183420181</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.003828458022326231</v>
+        <v>2.736445094342344e-05</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.001001243945211172</v>
+        <v>5.003851401852444e-05</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.004262973554432392</v>
+        <v>0.0009973444975912571</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.002091473201289773</v>
+        <v>0.000423446879722178</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.001617552479729056</v>
+        <v>0.0001999051310122013</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0009967457735911012</v>
+        <v>0.001180252525955439</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.008394096978008747</v>
+        <v>0.0001205312146339566</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.003673909232020378</v>
+        <v>0.001105901319533587</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.002751289866864681</v>
+        <v>0.0009096215944737196</v>
       </c>
       <c r="EC10" t="n">
-        <v>1.982931280508637e-06</v>
+        <v>0.000382631435059011</v>
       </c>
       <c r="ED10" t="n">
-        <v>1.545366831123829e-05</v>
+        <v>9.962783224182203e-06</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.006888188421726227</v>
+        <v>5.022444020141847e-05</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0001156670041382313</v>
+        <v>4.658976104110479e-05</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.009389767423272133</v>
+        <v>0.0006991950795054436</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.003613679204136133</v>
+        <v>7.250704220496118e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0007979151559993625</v>
+        <v>0.0002447145816404372</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.01457326766103506</v>
+        <v>0.0005750072887167335</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.01204993762075901</v>
+        <v>0.0003820627753157169</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0007735643885098398</v>
+        <v>0.0007489550043828785</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.008939797058701515</v>
+        <v>0.00024174724239856</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.006615567021071911</v>
+        <v>0.0001540845551062375</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.005930641200393438</v>
+        <v>0.0002172692766180262</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.001504612038843334</v>
+        <v>0.0003401201975066215</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.002301760017871857</v>
+        <v>0.0005661945324391127</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.002637457568198442</v>
+        <v>2.227304685220588e-05</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.002718542702496052</v>
+        <v>0.0007791409734636545</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.009100005030632019</v>
+        <v>0.001010216656140983</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.001722896937280893</v>
+        <v>0.0004062783264089376</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0001563848927617073</v>
+        <v>0.00138921570032835</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.006571578327566385</v>
+        <v>0.000532028148882091</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.002096200827509165</v>
+        <v>0.0002493600186426193</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.006076031364500523</v>
+        <v>0.00100607774220407</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.002303870161995292</v>
+        <v>0.0003013047389686108</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.001542125479318202</v>
+        <v>0.0004908886621706188</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.00332184717990458</v>
+        <v>0.0002607955248095095</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.009832034818828106</v>
+        <v>0.000501469592563808</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.002026672009378672</v>
+        <v>0.0004777185968123376</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.005094941705465317</v>
+        <v>8.900728425942361e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.003545332467183471</v>
+        <v>0.0004958634963259101</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0068894037976861</v>
+        <v>0.0003260133089497685</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.01111471001058817</v>
+        <v>0.0007109816069714725</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.01416786108165979</v>
+        <v>0.0008781743235886097</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.003531340975314379</v>
+        <v>0.001281318836845458</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.01193360984325409</v>
+        <v>0.0001585353311384097</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.0093979611992836</v>
+        <v>0.0001256520044989884</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.003019750118255615</v>
+        <v>6.432950613088906e-06</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.003061172086745501</v>
+        <v>0.0007129862788133323</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.008224558085203171</v>
+        <v>0.0006515850545838475</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.00445637758821249</v>
+        <v>0.0001435428857803345</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.01124430727213621</v>
+        <v>0.000205484961043112</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.003591642947867513</v>
+        <v>0.0001237436954397708</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.02398730628192425</v>
+        <v>0.0002694764989428222</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.007830522023141384</v>
+        <v>0.002049244940280914</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.01904549263417721</v>
+        <v>0.0004353058466222137</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.001068383688107133</v>
+        <v>0.0008302860078401864</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.002713282592594624</v>
+        <v>0.000596419966313988</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.004171685315668583</v>
+        <v>0.0005138097330927849</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.00272760191000998</v>
+        <v>0.001152518205344677</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0004225737939123064</v>
+        <v>0.0001592826301930472</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0004923712695017457</v>
+        <v>0.0001033569715218619</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.0005601258017122746</v>
+        <v>7.847587403375655e-05</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.002457350492477417</v>
+        <v>0.000501305446960032</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.00195446889847517</v>
+        <v>0.0008530803606845438</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.000310321687720716</v>
+        <v>0.002237117383629084</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.01258112769573927</v>
+        <v>0.0005435729399323463</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.002566847018897533</v>
+        <v>0.0007375301793217659</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01380516588687897</v>
+        <v>0.03503759205341339</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0590716227889061</v>
+        <v>0.2878698110580444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000555131584405899</v>
+        <v>0.02841063402593136</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003135009435936809</v>
+        <v>0.2110468745231628</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06997151672840118</v>
+        <v>0.01583291217684746</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07665349543094635</v>
+        <v>0.2242178618907928</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02525780908763409</v>
+        <v>0.0005934014916419983</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05786691233515739</v>
+        <v>0.09306369721889496</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004627698101103306</v>
+        <v>0.06313537061214447</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0148985767737031</v>
+        <v>0.07852204144001007</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03558211028575897</v>
+        <v>0.2441282868385315</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006094157230108976</v>
+        <v>0.01973582990467548</v>
       </c>
       <c r="M11" t="n">
-        <v>1.697568222880363e-06</v>
+        <v>0.1922814548015594</v>
       </c>
       <c r="N11" t="n">
-        <v>0.08280092477798462</v>
+        <v>0.02655866369605064</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08860979974269867</v>
+        <v>0.2247574478387833</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002172218868508935</v>
+        <v>0.01990429498255253</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04590391367673874</v>
+        <v>0.002662081271409988</v>
       </c>
       <c r="R11" t="n">
-        <v>0.006484844721853733</v>
+        <v>0.04143825173377991</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01139776594936848</v>
+        <v>0.007010072935372591</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01385764591395855</v>
+        <v>0.01135395094752312</v>
       </c>
       <c r="U11" t="n">
-        <v>0.008109686896204948</v>
+        <v>0.03831081837415695</v>
       </c>
       <c r="V11" t="n">
-        <v>0.007351845502853394</v>
+        <v>0.0455259308218956</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04388800263404846</v>
+        <v>0.05688735097646713</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03109597414731979</v>
+        <v>0.01494495943188667</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.009327363222837448</v>
+        <v>0.0293260533362627</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02443808689713478</v>
+        <v>0.04839498177170753</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.001747588627040386</v>
+        <v>0.04103862121701241</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.006928964518010616</v>
+        <v>0.01816538162529469</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.04195111617445946</v>
+        <v>0.006204428151249886</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01581776142120361</v>
+        <v>0.02975779585540295</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0005611837841570377</v>
+        <v>0.003202226012945175</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.07846716791391373</v>
+        <v>0.0213671587407589</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.02885988540947437</v>
+        <v>0.0229056216776371</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.00464368611574173</v>
+        <v>0.005995112471282482</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.01073718070983887</v>
+        <v>0.008548992685973644</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01148597896099091</v>
+        <v>0.01849328726530075</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.006800039671361446</v>
+        <v>0.04450447484850883</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.01403993368148804</v>
+        <v>0.0307004526257515</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.01101476792246103</v>
+        <v>0.01755374856293201</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.005623561330139637</v>
+        <v>0.02719581127166748</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.004826879128813744</v>
+        <v>0.0140587342903018</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.004968616180121899</v>
+        <v>0.035027876496315</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.01042812969535589</v>
+        <v>0.01297847647219896</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.001003458863124251</v>
+        <v>0.03613563627004623</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.01193088293075562</v>
+        <v>0.03679558634757996</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.00850202701985836</v>
+        <v>0.004686977714300156</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.01582100056111813</v>
+        <v>0.1734753102064133</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.02230188064277172</v>
+        <v>0.02050043642520905</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.005348914302885532</v>
+        <v>0.06507453322410583</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.008189237676560879</v>
+        <v>0.03580624610185623</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.0081971799954772</v>
+        <v>0.1182695925235748</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.001577274408191442</v>
+        <v>0.04429260268807411</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.006641265004873276</v>
+        <v>0.006900141015648842</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.003450780641287565</v>
+        <v>0.07166409492492676</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.002294396981596947</v>
+        <v>0.02837608009576797</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.04734057188034058</v>
+        <v>0.07495740056037903</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.01174973882734776</v>
+        <v>0.07766970247030258</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.01439920347183943</v>
+        <v>0.03124995157122612</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.03252685442566872</v>
+        <v>0.02555378340184689</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.01428557932376862</v>
+        <v>0.01967067271471024</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.02160533145070076</v>
+        <v>0.04139333218336105</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.03541195392608643</v>
+        <v>0.03475144505500793</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.003653849009424448</v>
+        <v>0.03822604939341545</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.01540127582848072</v>
+        <v>0.01680020429193974</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.007296066731214523</v>
+        <v>0.05074473097920418</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.02061944454908371</v>
+        <v>0.03919071704149246</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02183397859334946</v>
+        <v>0.02198103815317154</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.02094621397554874</v>
+        <v>0.0007110866717994213</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.01212624460458755</v>
+        <v>0.00625367509201169</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.001226598862558603</v>
+        <v>0.01236157771199942</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.006814328022301197</v>
+        <v>0.02505356632173061</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.005881607532501221</v>
+        <v>0.008945063687860966</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.003372596576809883</v>
+        <v>0.01128403097391129</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.01516285352408886</v>
+        <v>0.0991031751036644</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.02026996947824955</v>
+        <v>0.04743406921625137</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.02684194222092628</v>
+        <v>0.06150784716010094</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.02863086014986038</v>
+        <v>0.01870997436344624</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.02909734100103378</v>
+        <v>0.07699904590845108</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0009159084875136614</v>
+        <v>0.002669619396328926</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.006128155626356602</v>
+        <v>0.01437217183411121</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.007734409999102354</v>
+        <v>0.04909648001194</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.003800746519118547</v>
+        <v>0.007729707285761833</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.02170475572347641</v>
+        <v>0.03973939269781113</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.001413224497810006</v>
+        <v>0.04272890836000443</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.007093815132975578</v>
+        <v>0.02597853541374207</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01102661155164242</v>
+        <v>0.0151032991707325</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.01209212001413107</v>
+        <v>0.03498231619596481</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.004912341479212046</v>
+        <v>0.01581355184316635</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.008267154917120934</v>
+        <v>0.02216873876750469</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.003583650570362806</v>
+        <v>0.02928592078387737</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.01800518110394478</v>
+        <v>0.04853870719671249</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.01660329848527908</v>
+        <v>0.01189352199435234</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.00911297183483839</v>
+        <v>0.008570659905672073</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.007999280467629433</v>
+        <v>0.04726212099194527</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.02492972277104855</v>
+        <v>0.005407275632023811</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.02942690253257751</v>
+        <v>0.02515658736228943</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.01209497172385454</v>
+        <v>0.0575990341603756</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.03032879531383514</v>
+        <v>0.04139137640595436</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.009533826261758804</v>
+        <v>0.001340856542810798</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.003886360442265868</v>
+        <v>0.002387698739767075</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.02611758187413216</v>
+        <v>0.03787553682923317</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.002266708528622985</v>
+        <v>0.04268170893192291</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.008372027426958084</v>
+        <v>0.03924132883548737</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01845497265458107</v>
+        <v>0.01325806695967913</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.01369626261293888</v>
+        <v>0.03799805045127869</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.007967012003064156</v>
+        <v>0.01461446564644575</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.01113597210496664</v>
+        <v>0.03841298073530197</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.00590095529332757</v>
+        <v>0.01762210577726364</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.0009039700962603092</v>
+        <v>0.01222854200750589</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.001538620330393314</v>
+        <v>0.002635680604726076</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.01621858589351177</v>
+        <v>0.01392016932368279</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.003869343781843781</v>
+        <v>0.1114445254206657</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.02496245317161083</v>
+        <v>0.04123392701148987</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0125427134335041</v>
+        <v>0.00722238514572382</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.01303166896104813</v>
+        <v>0.03365952149033546</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.001620863564312458</v>
+        <v>0.04184626042842865</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.001599762705154717</v>
+        <v>0.03844232112169266</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.003039474366232753</v>
+        <v>0.002584485337138176</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.004308497533202171</v>
+        <v>0.01379777863621712</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.002510391175746918</v>
+        <v>0.025925412774086</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.006159714423120022</v>
+        <v>0.008744482882320881</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.01143384166061878</v>
+        <v>0.009078232571482658</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0235197190195322</v>
+        <v>0.002909091301262379</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.002549109747633338</v>
+        <v>0.008404587395489216</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.003374449443072081</v>
+        <v>0.006449188571423292</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0003705958370119333</v>
+        <v>0.03863100335001945</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.01167473662644625</v>
+        <v>0.005588932894170284</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.001796653377823532</v>
+        <v>0.01492229104042053</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0003032594686374068</v>
+        <v>0.05117551237344742</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.01420592982321978</v>
+        <v>0.01070114597678185</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.02228809520602226</v>
+        <v>0.01890799030661583</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.01165885291993618</v>
+        <v>0.04165671020746231</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.004982836544513702</v>
+        <v>0.01329652313143015</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.003702220739796758</v>
+        <v>0.01323417015373707</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.002536836778745055</v>
+        <v>0.001743632834404707</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.005582693964242935</v>
+        <v>0.01274652220308781</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.003431990277022123</v>
+        <v>0.03960774093866348</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.00595486257225275</v>
+        <v>0.03612529113888741</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.003416488412767649</v>
+        <v>0.007514290511608124</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.02943770959973335</v>
+        <v>0.009649543091654778</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.01612305827438831</v>
+        <v>0.0324125811457634</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.001025844481773674</v>
+        <v>0.01965301856398582</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.01416328363120556</v>
+        <v>0.01544262934476137</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.008391833864152431</v>
+        <v>0.01312988717108965</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.003356890752911568</v>
+        <v>0.003741740249097347</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.05284063145518303</v>
+        <v>0.01277701836079359</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.02354427985846996</v>
+        <v>0.03853922337293625</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.001788299879990518</v>
+        <v>0.0421837717294693</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.001973175909370184</v>
+        <v>0.006993392016738653</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.01837829127907753</v>
+        <v>0.04671475663781166</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.004279036074876785</v>
+        <v>0.05037492886185646</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.01678775623440742</v>
+        <v>0.08753878623247147</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.01324119977653027</v>
+        <v>0.008368594571948051</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.003040617797523737</v>
+        <v>7.642759010195732e-05</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.02059845998883247</v>
+        <v>0.02819553390145302</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.003770408686250448</v>
+        <v>0.03561339154839516</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.01214383170008659</v>
+        <v>0.03800194337964058</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01993250288069248</v>
+        <v>0.01733937487006187</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.01215369533747435</v>
+        <v>0.02774890325963497</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.007254878524690866</v>
+        <v>0.03225032240152359</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.006240129470825195</v>
+        <v>0.02681883797049522</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.003506932873278856</v>
+        <v>0.02886839956045151</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.00635473383590579</v>
+        <v>0.01664330624043941</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.00384682510048151</v>
+        <v>0.03676785156130791</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.01876648515462875</v>
+        <v>0.03950158506631851</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.004147965461015701</v>
+        <v>0.04897402971982956</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.01086147781461477</v>
+        <v>6.66789710521698e-05</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.02818080224096775</v>
+        <v>0.0106075732037425</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.02415631897747517</v>
+        <v>0.003275764174759388</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.006788500584661961</v>
+        <v>0.02122646197676659</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.01598085463047028</v>
+        <v>0.01482049748301506</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.006581038236618042</v>
+        <v>0.01649363711476326</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.004735025577247143</v>
+        <v>0.04469237104058266</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.01075479201972485</v>
+        <v>0.05493085831403732</v>
       </c>
       <c r="FS11" t="n">
-        <v>1.560209784656763e-05</v>
+        <v>0.07065808027982712</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.01679047755897045</v>
+        <v>0.04558566957712173</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.01178732234984636</v>
+        <v>0.04586994647979736</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.009694714099168777</v>
+        <v>0.06742624938488007</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.0003323925193399191</v>
+        <v>0.02473198063671589</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.009953433647751808</v>
+        <v>0.0005829652072861791</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.004305631853640079</v>
+        <v>0.0532233752310276</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.003201459301635623</v>
+        <v>0.02596116811037064</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.01501613017171621</v>
+        <v>0.02092098072171211</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.02810164541006088</v>
+        <v>0.0302403811365366</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.01791438087821007</v>
+        <v>0.009237904101610184</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.008093381300568581</v>
+        <v>0.002320791594684124</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.00043630157597363</v>
+        <v>0.1463215798139572</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.01110128685832024</v>
+        <v>0.01123653631657362</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.005782741587609053</v>
+        <v>0.0009648737031966448</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01888584718108177</v>
+        <v>0.1701481640338898</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1187377944588661</v>
+        <v>0.7443641424179077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.556358277797699</v>
+        <v>0.07091319561004639</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03142585605382919</v>
+        <v>0.14692422747612</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3683475255966187</v>
+        <v>0.160122349858284</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5537465214729309</v>
+        <v>0.02182192169129848</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1361425817012787</v>
+        <v>0.07436197996139526</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06182112917304039</v>
+        <v>0.02781800553202629</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1701027601957321</v>
+        <v>0.0145849920809269</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06464238464832306</v>
+        <v>0.004579052329063416</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2452632188796997</v>
+        <v>0.6745132207870483</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5672969818115234</v>
+        <v>0.05325387790799141</v>
       </c>
       <c r="M12" t="n">
-        <v>0.212675929069519</v>
+        <v>0.1046551689505577</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3793409168720245</v>
+        <v>0.1037727147340775</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6266533136367798</v>
+        <v>0.05956656858325005</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1099151819944382</v>
+        <v>0.04511134326457977</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.028087317943573</v>
+        <v>0.1079429239034653</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2412649393081665</v>
+        <v>0.07392238825559616</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03008216246962547</v>
+        <v>0.09311242401599884</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07820884883403778</v>
+        <v>0.2432929277420044</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01723527535796165</v>
+        <v>0.02118471078574657</v>
       </c>
       <c r="V12" t="n">
-        <v>0.005792327225208282</v>
+        <v>0.03633318096399307</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1282177567481995</v>
+        <v>0.06524045765399933</v>
       </c>
       <c r="X12" t="n">
-        <v>0.140029713511467</v>
+        <v>0.1029199659824371</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1292686015367508</v>
+        <v>0.04317113757133484</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1131753250956535</v>
+        <v>0.1108617261052132</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.004513559862971306</v>
+        <v>0.0245968047529459</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06957061588764191</v>
+        <v>0.06672237813472748</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1760965585708618</v>
+        <v>0.04490257054567337</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01962221972644329</v>
+        <v>0.1141675040125847</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.00860113650560379</v>
+        <v>0.065437912940979</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.5179975628852844</v>
+        <v>0.09370837360620499</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.03437576815485954</v>
+        <v>0.03219236433506012</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1486409455537796</v>
+        <v>0.06649072468280792</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.2512862682342529</v>
+        <v>0.001627136021852493</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.241188570857048</v>
+        <v>0.009637138806283474</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.01427346467971802</v>
+        <v>0.2048728913068771</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.1467321515083313</v>
+        <v>0.112565889954567</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.1708176881074905</v>
+        <v>0.001110218465328217</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.05750893801450729</v>
+        <v>0.05099233239889145</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.05961183831095695</v>
+        <v>0.071876160800457</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.06407743692398071</v>
+        <v>0.04521457850933075</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.05291993170976639</v>
+        <v>0.03042392618954182</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.03265438973903656</v>
+        <v>0.1014833822846413</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.04983846470713615</v>
+        <v>0.04553401097655296</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.1102999001741409</v>
+        <v>0.1170061230659485</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.07576854526996613</v>
+        <v>0.5201943516731262</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.2624980211257935</v>
+        <v>0.09104088693857193</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.1468965858221054</v>
+        <v>0.06486454606056213</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1466780304908752</v>
+        <v>0.0231121089309454</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.1634923815727234</v>
+        <v>0.09407819807529449</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.008188479579985142</v>
+        <v>0.1018370687961578</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.04572678729891777</v>
+        <v>0.02615071460604668</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0309588685631752</v>
+        <v>0.01308490615338087</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.08132749795913696</v>
+        <v>0.1306819319725037</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.1124658659100533</v>
+        <v>0.1011606454849243</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.01548541523516178</v>
+        <v>0.1108641549944878</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.04311292618513107</v>
+        <v>0.01189397275447845</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.4330766499042511</v>
+        <v>0.008171983994543552</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.1654349714517593</v>
+        <v>0.0367860421538353</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.1622922420501709</v>
+        <v>0.07733365148305893</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.05657330527901649</v>
+        <v>0.1022975370287895</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.05477450415492058</v>
+        <v>0.04215554520487785</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.04931972920894623</v>
+        <v>0.08962105214595795</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.06479918211698532</v>
+        <v>0.08416619896888733</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.07764344662427902</v>
+        <v>0.006427225191146135</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.1189170628786087</v>
+        <v>0.009284555912017822</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.07568934559822083</v>
+        <v>0.1031181216239929</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.02095808461308479</v>
+        <v>0.1332611888647079</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.004962939769029617</v>
+        <v>0.06820253282785416</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.1028797179460526</v>
+        <v>0.07515139877796173</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.04408356547355652</v>
+        <v>0.03686202317476273</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.01091331988573074</v>
+        <v>0.08919810503721237</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.07843395322561264</v>
+        <v>0.3787499964237213</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.1621914356946945</v>
+        <v>0.05707784742116928</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.008083418011665344</v>
+        <v>0.07739073038101196</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.1361986249685287</v>
+        <v>0.07231204211711884</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.2469563484191895</v>
+        <v>0.01484955847263336</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.06577536463737488</v>
+        <v>0.05980560928583145</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0052659772336483</v>
+        <v>0.02757227048277855</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.02268444187939167</v>
+        <v>0.004259291104972363</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.01669085212051868</v>
+        <v>0.03599910065531731</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.01155131496489048</v>
+        <v>0.1345174908638</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.1044356152415276</v>
+        <v>0.05055647343397141</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.05287713930010796</v>
+        <v>0.03118791431188583</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.03362477943301201</v>
+        <v>0.01461312081664801</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.1124496087431908</v>
+        <v>0.005922618787735701</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.01022088527679443</v>
+        <v>0.05592863261699677</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.01139133516699076</v>
+        <v>0.00278804381377995</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.0108818830922246</v>
+        <v>0.02757170796394348</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.1334181874990463</v>
+        <v>0.2104114890098572</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.02799155004322529</v>
+        <v>0.1059675887227058</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.2024967670440674</v>
+        <v>0.001121246255934238</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.09851062297821045</v>
+        <v>0.1142900288105011</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.2908912003040314</v>
+        <v>0.4709072113037109</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.09094728529453278</v>
+        <v>0.01527493447065353</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.04476150125265121</v>
+        <v>0.06290653347969055</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.007717723026871681</v>
+        <v>0.1176205724477768</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.1651539355516434</v>
+        <v>0.1169029176235199</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.003754843026399612</v>
+        <v>0.04565495997667313</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.0294148214161396</v>
+        <v>0.1289989054203033</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.1065017879009247</v>
+        <v>0.0798490047454834</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.06908530741930008</v>
+        <v>0.04176175221800804</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.1257961243391037</v>
+        <v>0.05418399721384048</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.08696457743644714</v>
+        <v>0.01149894203990698</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.01539604552090168</v>
+        <v>0.04003128781914711</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.03616055473685265</v>
+        <v>0.02458670921623707</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.001453611068427563</v>
+        <v>0.02123186551034451</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.08437810093164444</v>
+        <v>0.1192423850297928</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.1951076835393906</v>
+        <v>0.2559556365013123</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.1044941544532776</v>
+        <v>0.00377549254335463</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.1168666034936905</v>
+        <v>0.2432723641395569</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.1995388716459274</v>
+        <v>0.1477059423923492</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.02555180341005325</v>
+        <v>0.07203700393438339</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.08394613862037659</v>
+        <v>0.06565473228693008</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.2322895973920822</v>
+        <v>0.06457794457674026</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.04422556981444359</v>
+        <v>0.04136913269758224</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.07814812660217285</v>
+        <v>0.04339036718010902</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.03547338396310806</v>
+        <v>0.03488440066576004</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.05708834156394005</v>
+        <v>0.09171772748231888</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.01658174768090248</v>
+        <v>0.01153643988072872</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.03541652113199234</v>
+        <v>0.1191478073596954</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.01630585268139839</v>
+        <v>0.0130185354501009</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.09791134297847748</v>
+        <v>0.09945487976074219</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.04782124608755112</v>
+        <v>0.09548002481460571</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.008932322263717651</v>
+        <v>0.01710281148552895</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.1117447316646576</v>
+        <v>0.0112232007086277</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.03365488350391388</v>
+        <v>0.2547401487827301</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.02869801968336105</v>
+        <v>0.06292518973350525</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.1305661201477051</v>
+        <v>0.0717327743768692</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.1088133752346039</v>
+        <v>0.107110969722271</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.02135501429438591</v>
+        <v>0.03934914991259575</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.1137764006853104</v>
+        <v>0.03829977661371231</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.0810910165309906</v>
+        <v>0.03579921275377274</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.006117276847362518</v>
+        <v>0.01703845150768757</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.01164219342172146</v>
+        <v>0.1049929037690163</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.03317326307296753</v>
+        <v>0.05550472438335419</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.1013505160808563</v>
+        <v>0.0007705320604145527</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.06519782543182373</v>
+        <v>0.01171920448541641</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.1354806423187256</v>
+        <v>0.01225073449313641</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.1588860154151917</v>
+        <v>0.04279712587594986</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.05123236402869225</v>
+        <v>0.03810983896255493</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.002690670546144247</v>
+        <v>0.004697788506746292</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.06228853762149811</v>
+        <v>0.01152573153376579</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.08618979901075363</v>
+        <v>0.005923934280872345</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.05200515687465668</v>
+        <v>0.02229899913072586</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.006189149804413319</v>
+        <v>0.1533242762088776</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.06222323328256607</v>
+        <v>0.02242030948400497</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01250452641397715</v>
+        <v>0.08215361833572388</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.1139856576919556</v>
+        <v>0.03552158176898956</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.09289968013763428</v>
+        <v>0.1050203666090965</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.1188990473747253</v>
+        <v>0.1072037816047668</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.111823707818985</v>
+        <v>0.00504562072455883</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.03797318041324615</v>
+        <v>0.04473860934376717</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.002734442241489887</v>
+        <v>0.1298893094062805</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.113999180495739</v>
+        <v>0.06304652243852615</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0551019050180912</v>
+        <v>0.01475325413048267</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.09977518022060394</v>
+        <v>0.05881163477897644</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.07511791586875916</v>
+        <v>0.002354762284085155</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.01178074441850185</v>
+        <v>0.05739389359951019</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.03246494010090828</v>
+        <v>0.007593855261802673</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.01383337937295437</v>
+        <v>0.02685671858489513</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.05838190019130707</v>
+        <v>0.005926419515162706</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.04746904224157333</v>
+        <v>0.009088188409805298</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.1050511449575424</v>
+        <v>0.1061133146286011</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.05061421543359756</v>
+        <v>0.001894999295473099</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0007164627313613892</v>
+        <v>0.01926117576658726</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.013308335095644</v>
+        <v>0.06012894958257675</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.212921217083931</v>
+        <v>0.1219180524349213</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.01448577921837568</v>
+        <v>0.01878061704337597</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.06112903356552124</v>
+        <v>0.03327404335141182</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.3957752883434296</v>
+        <v>0.04673397913575172</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.1155839413404465</v>
+        <v>0.1179535314440727</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.1824363023042679</v>
+        <v>0.08729781210422516</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.1572486609220505</v>
+        <v>0.0553717166185379</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.2155657410621643</v>
+        <v>0.1067073121666908</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.2557651400566101</v>
+        <v>0.0173888336867094</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0336441844701767</v>
+        <v>0.04362359642982483</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.157114565372467</v>
+        <v>0.06302358955144882</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.07297307997941971</v>
+        <v>0.05025319755077362</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.02515353076159954</v>
+        <v>0.1209505349397659</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.09644428640604019</v>
+        <v>0.008004054427146912</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.03902234137058258</v>
+        <v>0.06481336057186127</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.03433828800916672</v>
+        <v>0.09525424987077713</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.02036909759044647</v>
+        <v>0.1863314807415009</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0244092270731926</v>
+        <v>0.1032042056322098</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.03752896189689636</v>
+        <v>0.1663946807384491</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.2420229613780975</v>
+        <v>0.001742620021104813</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.06998573988676071</v>
+        <v>0.0005391351878643036</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02291094698011875</v>
+        <v>0.0002660990285221487</v>
       </c>
       <c r="B13" t="n">
-        <v>0.054816834628582</v>
+        <v>0.00288097676821053</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02320528775453568</v>
+        <v>0.0002451620239298791</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06877360492944717</v>
+        <v>0.001000021584331989</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00462409108877182</v>
+        <v>0.0008338357438333333</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1537149995565414</v>
+        <v>0.001308020437136292</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03931728377938271</v>
+        <v>7.024716614978388e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.121923454105854</v>
+        <v>0.0007643532007932663</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05309099704027176</v>
+        <v>3.279427255620249e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02712008729577065</v>
+        <v>0.000489418744109571</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01826402544975281</v>
+        <v>0.002702260389924049</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01882938668131828</v>
+        <v>3.691460733534768e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0753142461180687</v>
+        <v>0.0006240148213692009</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01145560294389725</v>
+        <v>0.0002090773195959628</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1272189915180206</v>
+        <v>0.001403950620442629</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02527301385998726</v>
+        <v>5.908752063987777e-05</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1260140687227249</v>
+        <v>0.0001877195609267801</v>
       </c>
       <c r="R13" t="n">
-        <v>0.09649419784545898</v>
+        <v>5.570884241024032e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.004302321933209896</v>
+        <v>0.0001122639805544168</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01283127069473267</v>
+        <v>0.0002630292146932334</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0008085723966360092</v>
+        <v>0.0001246163592441007</v>
       </c>
       <c r="V13" t="n">
-        <v>0.03744376450777054</v>
+        <v>0.0003608406404964626</v>
       </c>
       <c r="W13" t="n">
-        <v>0.046159528195858</v>
+        <v>0.0001631926133995876</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01759526506066322</v>
+        <v>1.551336026750505e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02721346542239189</v>
+        <v>9.686484554549679e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.008494803681969643</v>
+        <v>0.000279078318271786</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.003250764217227697</v>
+        <v>0.0001489651040174067</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02233775332570076</v>
+        <v>2.577522536739707e-05</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.008248394355177879</v>
+        <v>5.700368274119683e-05</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.002290281932801008</v>
+        <v>7.860566256567836e-05</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.02241123095154762</v>
+        <v>0.0002366640255786479</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.04283758997917175</v>
+        <v>0.0001851058041211218</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.001442153938114643</v>
+        <v>1.308559876633808e-05</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.04601212590932846</v>
+        <v>2.277895691804588e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.002515677828341722</v>
+        <v>0.0001254322123713791</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.01397310942411423</v>
+        <v>0.0001311070227529854</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.003426059614866972</v>
+        <v>0.0005079465918242931</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.006871270947158337</v>
+        <v>0.0002204241027357057</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.02245209366083145</v>
+        <v>4.019813059130684e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.00650258082896471</v>
+        <v>2.369960930082016e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.05160230025649071</v>
+        <v>2.828535798471421e-06</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.03407231718301773</v>
+        <v>0.0004068291164003313</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.004443231038749218</v>
+        <v>5.544897067011334e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.02259879745543003</v>
+        <v>0.0002232803526567295</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.01025714166462421</v>
+        <v>0.0003092957485932857</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0006422889418900013</v>
+        <v>0.0001002105273073539</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.001073857070878148</v>
+        <v>0.001569813583046198</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.005934467073529959</v>
+        <v>0.0003588508407119662</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.01481829583644867</v>
+        <v>5.100224370835349e-05</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.00518154539167881</v>
+        <v>0.0003554019785951823</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0816914439201355</v>
+        <v>0.000680214143358171</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.005859894212335348</v>
+        <v>0.0001387455267831683</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.07372317463159561</v>
+        <v>0.0003398903645575047</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.03198915347456932</v>
+        <v>0.0002747273247223347</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.009865422733128071</v>
+        <v>0.0001025680830935016</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.01791356690227985</v>
+        <v>0.0005774832679890096</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.01349120773375034</v>
+        <v>0.0007325223414227366</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.06434324383735657</v>
+        <v>0.0001922134542837739</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.03085802868008614</v>
+        <v>0.0003948045196011662</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.02284210175275803</v>
+        <v>0.0001769762893673033</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.01765665039420128</v>
+        <v>8.795865869615227e-05</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.02603988349437714</v>
+        <v>0.0001708927738945931</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.01254067104309797</v>
+        <v>6.695072079310194e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.01700205914676189</v>
+        <v>0.0001875182933872566</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.01263405289500952</v>
+        <v>0.0002692179987207055</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.002610365627333522</v>
+        <v>0.0002592150995042175</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.003003189340233803</v>
+        <v>9.85042643151246e-05</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.005898401141166687</v>
+        <v>0.0001022936630761251</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0122491642832756</v>
+        <v>2.635078453749884e-05</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0203001257032156</v>
+        <v>9.676323679741472e-05</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.007018489763140678</v>
+        <v>0.0001474491436965764</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.01077043078839779</v>
+        <v>0.0002986180479638278</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.02186741679906845</v>
+        <v>4.898810584563762e-05</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.01387020479887724</v>
+        <v>0.0009583362261764705</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.003462266875430942</v>
+        <v>0.0002965215244330466</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.006123572122305632</v>
+        <v>6.792021304136142e-05</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01100401673465967</v>
+        <v>0.0001368329685647041</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.04217316955327988</v>
+        <v>0.0003578126197680831</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.01263997796922922</v>
+        <v>6.182469223858789e-05</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.03573492169380188</v>
+        <v>0.0001446484675398096</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.01992532983422279</v>
+        <v>0.0001359052839688957</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.01746717654168606</v>
+        <v>7.029128028079867e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.007924754172563553</v>
+        <v>0.0005389059660956264</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.006259912624955177</v>
+        <v>0.0001962780515896156</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.02640425227582455</v>
+        <v>0.0001226105960085988</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.009300537407398224</v>
+        <v>0.0001072261147783138</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.02511439472436905</v>
+        <v>0.0001057721237884834</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.009131163358688354</v>
+        <v>0.0001420862972736359</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.01307907234877348</v>
+        <v>0.0001732035016175359</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.005274190567433834</v>
+        <v>0.0001397391897626221</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.04360519349575043</v>
+        <v>0.0005553819937631488</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.0005363570526242256</v>
+        <v>0.0001857734896475449</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.005742880515754223</v>
+        <v>4.092902599950321e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.04101206362247467</v>
+        <v>0.0005021739052608609</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.06289646029472351</v>
+        <v>0.0004123750841245055</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.03131121769547462</v>
+        <v>0.0006533853593282402</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.02047443203628063</v>
+        <v>0.0005201330641284585</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.03172734379768372</v>
+        <v>0.0002028610906563699</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.02721953392028809</v>
+        <v>6.708471482852474e-05</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.01388715021312237</v>
+        <v>6.87456558807753e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.01942355930805206</v>
+        <v>0.0005191437085159123</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.006262181326746941</v>
+        <v>0.0002610209630802274</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.01836857199668884</v>
+        <v>0.0002480371040292084</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.01193433813750744</v>
+        <v>9.062464960152283e-05</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.02884345501661301</v>
+        <v>0.0001553999609313905</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.004309614188969135</v>
+        <v>0.0001367129443679005</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.02398079633712769</v>
+        <v>0.0003230407019145787</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.004541667178273201</v>
+        <v>0.000112114088551607</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.004520595539361238</v>
+        <v>0.0003018708666786551</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.02745379321277142</v>
+        <v>0.0003049707447644323</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0004505722317844629</v>
+        <v>3.808079418377019e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.03089821338653564</v>
+        <v>0.0008719105389900506</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.02675567381083965</v>
+        <v>0.0009093839325942099</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.03708600997924805</v>
+        <v>3.305325662950054e-05</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.04269528388977051</v>
+        <v>0.0004137781506869942</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.01109939999878407</v>
+        <v>0.0003560693585313857</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.03321166709065437</v>
+        <v>0.0003660070069599897</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.02269136719405651</v>
+        <v>0.0001081981608876958</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.02390404976904392</v>
+        <v>0.000274912774330005</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.01131331454962492</v>
+        <v>0.0001416729064658284</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01200317684561014</v>
+        <v>0.0002110382192768157</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.008370392024517059</v>
+        <v>4.552314749162178e-06</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.02404523640871048</v>
+        <v>0.0002023520064540207</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.003856523893773556</v>
+        <v>0.0001439207699149847</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0003371755592525005</v>
+        <v>0.0001120910819736309</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.01749953255057335</v>
+        <v>0.00012383540160954</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0032024085521698</v>
+        <v>4.224479926051572e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.007962926290929317</v>
+        <v>0.0001449024566682056</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0006246143602766097</v>
+        <v>0.0002884830464608967</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.008834255859255791</v>
+        <v>7.438898319378495e-05</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.01332149375230074</v>
+        <v>0.0001060160429915413</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.007446955423802137</v>
+        <v>6.763820420019329e-05</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.001048242440447211</v>
+        <v>0.0001282463344978169</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.01264197565615177</v>
+        <v>0.0001018056354951113</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.009815352037549019</v>
+        <v>0.0001919530623126775</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.03841203451156616</v>
+        <v>0.0004361521278042346</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.005729124881327152</v>
+        <v>0.0005642212345264852</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.001788427005521953</v>
+        <v>0.0003306689322926104</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.01865364983677864</v>
+        <v>7.511789590353146e-05</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.009234503842890263</v>
+        <v>0.0001903511729324237</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.03208407759666443</v>
+        <v>0.000105852734122891</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.006645747926086187</v>
+        <v>0.0001145355054177344</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.01106380671262741</v>
+        <v>3.380624548299238e-05</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.00385047891177237</v>
+        <v>4.737333802040666e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.006013006437569857</v>
+        <v>5.246871296549216e-05</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.03293322026729584</v>
+        <v>0.0002860706299543381</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0005253893905319273</v>
+        <v>0.0003167275863233954</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.02858312427997589</v>
+        <v>0.0002332506264792755</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.01422266382724047</v>
+        <v>0.0001458739279769361</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.003925165627151728</v>
+        <v>0.0003691407910082489</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.01916286908090115</v>
+        <v>0.0002723323414102197</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.04009809345006943</v>
+        <v>0.0005688680103048682</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.01261706836521626</v>
+        <v>0.0001121197419706732</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.01834032125771046</v>
+        <v>0.0001146135327871889</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.01532920636236668</v>
+        <v>0.0005014169146306813</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.008171038702130318</v>
+        <v>0.0002099585108226165</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.02063084207475185</v>
+        <v>0.0001147465955000371</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.008971989154815674</v>
+        <v>0.0001075361506082118</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.02542900294065475</v>
+        <v>0.000107042069430463</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.007508072070777416</v>
+        <v>0.0001782741746865213</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.02465666830539703</v>
+        <v>0.0002675191208254546</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.00237109512090683</v>
+        <v>0.0001694470993243158</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.002596240025013685</v>
+        <v>0.0001478046469856054</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.02489383704960346</v>
+        <v>2.608927570690867e-05</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.009587612003087997</v>
+        <v>0.0004408660461194813</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.0363522432744503</v>
+        <v>0.0003196127654518932</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.01657718606293201</v>
+        <v>0.0001290650252485648</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.008058042265474796</v>
+        <v>0.0003162331413477659</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.003723268862813711</v>
+        <v>5.560759746003896e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.01170679274946451</v>
+        <v>0.0002236477157566696</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.01477070525288582</v>
+        <v>0.0001595085632288828</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.004499892704188824</v>
+        <v>0.0003796215751208365</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.02291764505207539</v>
+        <v>6.810799823142588e-05</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.007248800713568926</v>
+        <v>0.0005196092533878982</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.09522753953933716</v>
+        <v>8.446753781754524e-05</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.004750248044729233</v>
+        <v>0.0003855727263726294</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.06793434917926788</v>
+        <v>8.950173651101068e-05</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.009122094139456749</v>
+        <v>0.0001398304157191887</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.02705566212534904</v>
+        <v>9.741295798448846e-06</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.02362503483891487</v>
+        <v>5.361375951906666e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0063296714797616</v>
+        <v>0.000457092362921685</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.004602313041687012</v>
+        <v>0.0001802322512958199</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0275795329362154</v>
+        <v>0.000286424474325031</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.02136782743036747</v>
+        <v>7.498521881643683e-06</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.002365568652749062</v>
+        <v>2.330823917873204e-06</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.01028728578239679</v>
+        <v>0.0002765968383755535</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.008434899151325226</v>
+        <v>0.0006531279068440199</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.001630545593798161</v>
+        <v>8.514353248756379e-05</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.009735392406582832</v>
+        <v>0.0003296450304333121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0007878932519815862</v>
+        <v>0.0001067433258867823</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0006729599554091692</v>
+        <v>0.007076155859977007</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001055002328939736</v>
+        <v>0.0007004609215073287</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001020068651996553</v>
+        <v>0.001597374328412116</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001683408743701875</v>
+        <v>0.002887724200263619</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004862368106842041</v>
+        <v>0.002238210057839751</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0007508046692237258</v>
+        <v>0.0002263920614495873</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001931608421728015</v>
+        <v>0.001012147171422839</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001092989696189761</v>
+        <v>0.0001946294796653092</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0007658430840820074</v>
+        <v>0.0004181993426755071</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0004300798755139112</v>
+        <v>0.005821793805807829</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001055220025591552</v>
+        <v>0.0001085758703993633</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0007613629568368196</v>
+        <v>0.00068520603235811</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001556876813992858</v>
+        <v>0.001770576578564942</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004251766949892044</v>
+        <v>0.00221057259477675</v>
       </c>
       <c r="P14" t="n">
-        <v>0.000242719950620085</v>
+        <v>0.0001059163187164813</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.001372998696751893</v>
+        <v>0.0005012296605855227</v>
       </c>
       <c r="R14" t="n">
-        <v>0.001511215814389288</v>
+        <v>0.0005298595642670989</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0006611223798245192</v>
+        <v>0.0001572088804095984</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0003455987316556275</v>
+        <v>0.0006677579367533326</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0002345895045436919</v>
+        <v>6.020510045345873e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0007825162610970438</v>
+        <v>0.0009575799340382218</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0002549281343817711</v>
+        <v>0.001696154824458063</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0009239623323082924</v>
+        <v>0.0003103583585470915</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0003759357787203044</v>
+        <v>9.698935900814831e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.000547605799511075</v>
+        <v>0.001166104571893811</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0003674684267025441</v>
+        <v>0.000223777795326896</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.313808363396674e-05</v>
+        <v>0.0001957825152203441</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.875889837625436e-05</v>
+        <v>9.937536378856748e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0001796811266103759</v>
+        <v>5.470350151881576e-05</v>
       </c>
       <c r="AE14" t="n">
-        <v>3.899167495546862e-05</v>
+        <v>0.0001829941902542487</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.001337499124929309</v>
+        <v>0.0004464360245037824</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0001482595689594746</v>
+        <v>0.0003300041717011482</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0005621023010462523</v>
+        <v>0.0002685788203962147</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.0006078200531192124</v>
+        <v>0.0002372148737777025</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.627917511854321e-05</v>
+        <v>0.0008025068091228604</v>
       </c>
       <c r="AK14" t="n">
-        <v>7.944745448185131e-05</v>
+        <v>0.001169228926301003</v>
       </c>
       <c r="AL14" t="n">
-        <v>6.78553624311462e-05</v>
+        <v>0.0004177556838840246</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0006046671187505126</v>
+        <v>0.0003394566883798689</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.73941836389713e-05</v>
+        <v>0.000401790370233357</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0005682369228452444</v>
+        <v>0.0005919424584135413</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.0003275848866906017</v>
+        <v>0.0007315307739190757</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0001184967695735395</v>
+        <v>0.000103640959423501</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.0001936628978000954</v>
+        <v>0.0002848653239198029</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0003942957555409521</v>
+        <v>0.000275433820206672</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.000580853084102273</v>
+        <v>0.0001259701530216262</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0002784874523058534</v>
+        <v>0.004376392811536789</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0005978703266009688</v>
+        <v>0.0001126565475715324</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0002621073217596859</v>
+        <v>0.0007577102514915168</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0002697675954550505</v>
+        <v>0.001204310217872262</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.00234679039567709</v>
+        <v>0.0009558577439747751</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.0002021063846768811</v>
+        <v>0.0005670533864758909</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.0003156462335027754</v>
+        <v>7.883654325269163e-05</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.000336952623911202</v>
+        <v>0.0002469075261615217</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.835581785300747e-05</v>
+        <v>0.0004677904944401234</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.0001444722001906484</v>
+        <v>0.001343362382613122</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.0004254319064784795</v>
+        <v>0.001194936339743435</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.001026976970024407</v>
+        <v>2.129917265847325e-05</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.0002698841562960297</v>
+        <v>0.001948863849975169</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.0006435621180571616</v>
+        <v>0.0007001645280979574</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.0003065134515054524</v>
+        <v>0.0007471985882148147</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.001032419502735138</v>
+        <v>0.0003473926044534892</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0003390282508917153</v>
+        <v>2.368917921558022e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.0003381903516128659</v>
+        <v>0.000706191174685955</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0001852634304668754</v>
+        <v>0.001105072209611535</v>
       </c>
       <c r="BN14" t="n">
-        <v>9.020722063723952e-05</v>
+        <v>0.0007590333116240799</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.0002756620815489441</v>
+        <v>0.0003013625682797283</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.0004642284475266933</v>
+        <v>0.001327592064626515</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.0002148590720025823</v>
+        <v>0.00087694451212883</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.0002164780744351447</v>
+        <v>8.625432383269072e-05</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0002127063344232738</v>
+        <v>6.322131957858801e-05</v>
       </c>
       <c r="BT14" t="n">
-        <v>7.660649862373248e-05</v>
+        <v>0.0002021242398768663</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.0003887327911797911</v>
+        <v>0.0001237425021827221</v>
       </c>
       <c r="BV14" t="n">
-        <v>3.073711559409276e-05</v>
+        <v>0.002795739565044641</v>
       </c>
       <c r="BW14" t="n">
-        <v>9.473794489167631e-05</v>
+        <v>0.00088053586659953</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.0001610664767213166</v>
+        <v>0.0002990506472997367</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.0004704149323515594</v>
+        <v>0.00068224489223212</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.001592878601513803</v>
+        <v>0.0001597133814357221</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.000164744138601236</v>
+        <v>0.0002920205588452518</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.0003447149938438088</v>
+        <v>0.0002792218001559377</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.0005725335795432329</v>
+        <v>5.94313933106605e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.0001512836315669119</v>
+        <v>0.0001776761637302116</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.0001848726824391633</v>
+        <v>0.001237953314557672</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0001932923769345507</v>
+        <v>0.0003919405862689018</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.0003873807145282626</v>
+        <v>0.0002757798356469721</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0002930869231931865</v>
+        <v>2.009022682614159e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.0009023974998854101</v>
+        <v>0.0004029963747598231</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.0001599725073901936</v>
+        <v>0.0004567473370116204</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.0001324859040323645</v>
+        <v>0.0002669994137249887</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.0002240529283881187</v>
+        <v>0.0002092139038722962</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.0001700259163044393</v>
+        <v>0.001706832554191351</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.0003377422108314931</v>
+        <v>0.0005522657302208245</v>
       </c>
       <c r="CO14" t="n">
-        <v>4.768620419781655e-05</v>
+        <v>0.0001995486090891063</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.0006624076631851494</v>
+        <v>0.0004767300561070442</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0007899915799498558</v>
+        <v>0.0008239275775849819</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.0006213455344550312</v>
+        <v>0.0007874335278756917</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.0004030811251141131</v>
+        <v>0.001400968641974032</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.0003323635028209537</v>
+        <v>0.000858025683555752</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.0001372508995700628</v>
+        <v>0.0005387012497521937</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.000191552797332406</v>
+        <v>0.0001419264008291066</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.0002809538564179093</v>
+        <v>0.001148282084614038</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.0001807646476663649</v>
+        <v>0.0005424651317298412</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.0002208534424426034</v>
+        <v>0.000543569796718657</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.0003279135562479496</v>
+        <v>0.000103051817859523</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.000878902617841959</v>
+        <v>0.0005587932537309825</v>
       </c>
       <c r="DB14" t="n">
-        <v>4.515646651270799e-05</v>
+        <v>0.0003489457303658128</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.0003455675614532083</v>
+        <v>0.0005804660613648593</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0002007966249948367</v>
+        <v>0.0001059769201674499</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.0002981638244818896</v>
+        <v>0.0006361289997585118</v>
       </c>
       <c r="DF14" t="n">
-        <v>3.069716331083328e-05</v>
+        <v>0.001413789112120867</v>
       </c>
       <c r="DG14" t="n">
-        <v>4.479684866964817e-05</v>
+        <v>0.0001423817011527717</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.0005711730918847024</v>
+        <v>0.001987298484891653</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.0005677315639331937</v>
+        <v>0.001991472207009792</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.0007200117688626051</v>
+        <v>0.0004691737412940711</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.0007362717296928167</v>
+        <v>0.0005687807570211589</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.0001674647210165858</v>
+        <v>7.487759285140783e-05</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.0008183085592463613</v>
+        <v>0.001065071439370513</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.0006967581575736403</v>
+        <v>0.00036878656828776</v>
       </c>
       <c r="DO14" t="n">
-        <v>6.026904520695098e-05</v>
+        <v>0.0003982394118793309</v>
       </c>
       <c r="DP14" t="n">
-        <v>8.139082638081163e-05</v>
+        <v>0.0008304739603772759</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0004465910024009645</v>
+        <v>0.0004876785387750715</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.0003652586892712861</v>
+        <v>0.001229006564244628</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.0004662167630158365</v>
+        <v>0.000180155344423838</v>
       </c>
       <c r="DT14" t="n">
-        <v>7.907412509666756e-05</v>
+        <v>0.0004756523994728923</v>
       </c>
       <c r="DU14" t="n">
-        <v>1.857175811892375e-05</v>
+        <v>0.0004430365806911141</v>
       </c>
       <c r="DV14" t="n">
-        <v>6.056794518372044e-05</v>
+        <v>0.0001607160666026175</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.0001019647024804726</v>
+        <v>0.0001814879360608757</v>
       </c>
       <c r="DX14" t="n">
-        <v>3.971212936448865e-05</v>
+        <v>0.0002928546164184809</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.0002773145097307861</v>
+        <v>0.0005114999366924167</v>
       </c>
       <c r="DZ14" t="n">
-        <v>2.77159851975739e-05</v>
+        <v>0.0001021116913761944</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.000395320967072621</v>
+        <v>0.0004336941055953503</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.0001781799946911633</v>
+        <v>0.0006701651145704091</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.0003451609518378973</v>
+        <v>0.0002504111616872251</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.0003501746687106788</v>
+        <v>0.0002640444727148861</v>
       </c>
       <c r="EE14" t="n">
-        <v>4.79162554256618e-06</v>
+        <v>0.0002165943442378193</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.000236818625126034</v>
+        <v>0.000743845768738538</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.0003145588270854205</v>
+        <v>0.001394948340021074</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.0001634180516703054</v>
+        <v>0.000481476541608572</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.0003241644590161741</v>
+        <v>0.0004415916046127677</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.001156060257926583</v>
+        <v>0.0002976586984004825</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.0009153721039183438</v>
+        <v>0.0001935889013111591</v>
       </c>
       <c r="EL14" t="n">
-        <v>3.465785630396567e-05</v>
+        <v>0.0003621482173912227</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.0003784534055739641</v>
+        <v>3.08304006466642e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.0002903169661294669</v>
+        <v>0.0002056996163446456</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.00036286108661443</v>
+        <v>0.0002734742010943592</v>
       </c>
       <c r="EP14" t="n">
-        <v>1.375541523884749e-05</v>
+        <v>0.0003736304934136569</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.0003352099447511137</v>
+        <v>0.0003731258038897067</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.0004228688485454768</v>
+        <v>9.215198224410415e-05</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.0001662187132751569</v>
+        <v>0.0001568481529830024</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.0002549580240156502</v>
+        <v>0.0005661356844939291</v>
       </c>
       <c r="EU14" t="n">
-        <v>5.609720392385498e-05</v>
+        <v>0.0002882122062146664</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.0002328252885490656</v>
+        <v>0.0009198447223752737</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.0002797807683236897</v>
+        <v>0.0007931620348244905</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.0002179876319132745</v>
+        <v>0.0002520371344871819</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.0001906421384774148</v>
+        <v>0.0009462156449444592</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.0001825785584514961</v>
+        <v>0.0003151189011987299</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.0003047377977054566</v>
+        <v>0.0002121741708833724</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.0003657856723293662</v>
+        <v>7.624008503626101e-06</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.0008718175813555717</v>
+        <v>0.0004785270139109343</v>
       </c>
       <c r="FD14" t="n">
-        <v>5.24278993907501e-06</v>
+        <v>0.0003792969800997525</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.0003528395027387887</v>
+        <v>0.0003082916664425284</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.0001451576827093959</v>
+        <v>0.0002225496427854523</v>
       </c>
       <c r="FG14" t="n">
-        <v>3.043083415832371e-05</v>
+        <v>0.0002720982884056866</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.0003867057093884796</v>
+        <v>0.0003652569430414587</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.0004143624973949045</v>
+        <v>0.0008706278749741614</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.0003214003518223763</v>
+        <v>0.001404790673404932</v>
       </c>
       <c r="FK14" t="n">
-        <v>9.447596676182002e-05</v>
+        <v>0.0008596863481216133</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.000293573277303949</v>
+        <v>0.0004102512320969254</v>
       </c>
       <c r="FM14" t="n">
-        <v>6.925802154000849e-05</v>
+        <v>7.064882811391726e-05</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.0005341196665540338</v>
+        <v>0.0002839239314198494</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.0004718797572422773</v>
+        <v>0.0006253012106753886</v>
       </c>
       <c r="FP14" t="n">
-        <v>2.051087358267978e-05</v>
+        <v>0.001122743939049542</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.0001595488865859807</v>
+        <v>0.001026294659823179</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.0001635301159694791</v>
+        <v>0.001043280586600304</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.001793628325685859</v>
+        <v>0.0004348165239207447</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.0005413418402895331</v>
+        <v>0.0001089222205337137</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.002009108662605286</v>
+        <v>0.0005099669797345996</v>
       </c>
       <c r="FV14" t="n">
-        <v>5.381626760936342e-05</v>
+        <v>0.0003644735843408853</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.0003543777856975794</v>
+        <v>0.0005542145227082074</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.0005660679889842868</v>
+        <v>0.0002208577643614262</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.0001247705076821148</v>
+        <v>0.000963082246016711</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.0001062292285496369</v>
+        <v>0.0003853582602459937</v>
       </c>
       <c r="GA14" t="n">
-        <v>5.338599294191226e-06</v>
+        <v>0.0003584529040381312</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.0002184546901844442</v>
+        <v>4.916064790450037e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.0001422398054273799</v>
+        <v>0.0002707565727178007</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.0002177881251554936</v>
+        <v>0.0001187199959531426</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.0005214590346440673</v>
+        <v>0.0009804046712815762</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0003007704799529165</v>
+        <v>0.0002486290468368679</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.0005226262146607041</v>
+        <v>0.0005649521481245756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.002028291113674641</v>
+        <v>2.344127460673917e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>0.008444815874099731</v>
+        <v>0.001328091369941831</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001667763222940266</v>
+        <v>6.128921086201444e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002548662014305592</v>
+        <v>0.0008389499271288514</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004463782534003258</v>
+        <v>0.0001508982386440039</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01629153825342655</v>
+        <v>0.0001038473928929307</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002522998256608844</v>
+        <v>0.0001438175968360156</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003659185022115707</v>
+        <v>5.118723856867291e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002635135082527995</v>
+        <v>6.998040771577507e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001919113215990365</v>
+        <v>0.0001096649721148424</v>
       </c>
       <c r="K15" t="n">
-        <v>0.008073415607213974</v>
+        <v>0.001176471821963787</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002906397567130625</v>
+        <v>2.262325688207056e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001086147967725992</v>
+        <v>0.0007797848666086793</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00377545622177422</v>
+        <v>0.0002163079043384641</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01421122066676617</v>
+        <v>2.804513860610314e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00314985984005034</v>
+        <v>9.569689427735284e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0006648675771430135</v>
+        <v>0.0001713107485556975</v>
       </c>
       <c r="R15" t="n">
-        <v>0.002403504680842161</v>
+        <v>4.482961685425835e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>0.001279668416827917</v>
+        <v>9.173302532872185e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0001843089848989621</v>
+        <v>0.0001531977322883904</v>
       </c>
       <c r="U15" t="n">
-        <v>0.000338482903316617</v>
+        <v>1.32631548694917e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>0.002433339599519968</v>
+        <v>8.488398452755064e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0006605383241549134</v>
+        <v>9.259504440706223e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>0.002844877541065216</v>
+        <v>2.942816900031175e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.001417665742337704</v>
+        <v>0.000125891572679393</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.004989872220903635</v>
+        <v>9.819824481382966e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0005052859196439385</v>
+        <v>0.0001124939590226859</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002076952485367656</v>
+        <v>0.0001294009998673573</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.001104242634028196</v>
+        <v>0.0002637296274770051</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.762653305893764e-05</v>
+        <v>1.92080933629768e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0001509014400653541</v>
+        <v>3.256238051108085e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.005736340768635273</v>
+        <v>3.530262983986177e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.001260061981156468</v>
+        <v>2.880510510294698e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.001161987078376114</v>
+        <v>8.379103383049369e-05</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.003291256725788116</v>
+        <v>2.15216314245481e-05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.001311019295826554</v>
+        <v>4.871685086982325e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.0002387854037806392</v>
+        <v>3.491475217742845e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.00151058507617563</v>
+        <v>0.0001298873248742893</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.0008593864622525871</v>
+        <v>1.673570477578323e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0005524132284335792</v>
+        <v>3.810768248513341e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0002305266680195928</v>
+        <v>0.0001145831265603192</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.002432476729154587</v>
+        <v>8.335467282449827e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.000109697924926877</v>
+        <v>9.967342339223251e-05</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.000324501859722659</v>
+        <v>3.135981751256622e-05</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.001699682557955384</v>
+        <v>3.715107595780864e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.00148128136061132</v>
+        <v>0.0001380734611302614</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.004032689612358809</v>
+        <v>0.000812740414403379</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.001201093196868896</v>
+        <v>0.0001804017229005694</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.00156421703286469</v>
+        <v>0.0002628506335895509</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.0006978930905461311</v>
+        <v>3.645934702944942e-05</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.007481833454221487</v>
+        <v>8.939955296227708e-05</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.0001934195752255619</v>
+        <v>3.427600313443691e-05</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0006981128244660795</v>
+        <v>5.828615394420922e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.0008425993728451431</v>
+        <v>3.146221570204943e-05</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.001885258359834552</v>
+        <v>5.795029574073851e-05</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.001677721505984664</v>
+        <v>0.000190411796211265</v>
       </c>
       <c r="BE15" t="n">
-        <v>3.933021798729897e-05</v>
+        <v>0.0002286593371536583</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.003676280612125993</v>
+        <v>0.0001493773597758263</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.001223004539497197</v>
+        <v>0.0001349251542706043</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.004073942080140114</v>
+        <v>2.109198612743057e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.001097483444027603</v>
+        <v>8.687474473845214e-05</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.004388804081827402</v>
+        <v>0.0001662664290051907</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.0007681543938815594</v>
+        <v>3.818958066403866e-05</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.001104758237488568</v>
+        <v>0.0001138553707278334</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0002930249029304832</v>
+        <v>5.291876732371747e-05</v>
       </c>
       <c r="BN15" t="n">
-        <v>1.375896681565791e-05</v>
+        <v>9.118855086853728e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.003354877000674605</v>
+        <v>4.500182330957614e-05</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.001471069524995983</v>
+        <v>0.0002101925056194887</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.001049870508722961</v>
+        <v>1.977500505745411e-05</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.002252831589430571</v>
+        <v>4.498177077039145e-05</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.0009384616860188544</v>
+        <v>6.201679207151756e-05</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.0008060620748437941</v>
+        <v>0.0001014241279335693</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.0009840754792094231</v>
+        <v>9.863698505796492e-05</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.001605375087819993</v>
+        <v>0.0004223456780891865</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.000967432395555079</v>
+        <v>0.0001032101281452924</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0007468800176866353</v>
+        <v>0.0001803256309358403</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.001592437969520688</v>
+        <v>8.10851197456941e-05</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.005878121592104435</v>
+        <v>1.753843025653623e-05</v>
       </c>
       <c r="CA15" t="n">
-        <v>1.30819680634886e-05</v>
+        <v>6.130558176664636e-05</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.001275636022910476</v>
+        <v>1.379690183966886e-05</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.002734239911660552</v>
+        <v>8.069753675954416e-05</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.0008479868993163109</v>
+        <v>2.206543103966396e-05</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.001284431433305144</v>
+        <v>0.0002257539017591625</v>
       </c>
       <c r="CF15" t="n">
-        <v>7.270289643201977e-05</v>
+        <v>5.274216891848482e-05</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.0002578915737103671</v>
+        <v>9.662334196036682e-05</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0004813112027477473</v>
+        <v>4.777904541697353e-05</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.002034204779192805</v>
+        <v>2.520065754652023e-05</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.0002165678015444428</v>
+        <v>3.430507786106318e-05</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.0003465697809588164</v>
+        <v>6.297632353380322e-06</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0008383709937334061</v>
+        <v>3.048580947506707e-05</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.0007389260572381318</v>
+        <v>0.0002997091214638203</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.0004976986674591899</v>
+        <v>5.648618389386684e-05</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0001242985890712589</v>
+        <v>2.532245707698166e-05</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.0009889239445328712</v>
+        <v>0.0002095800591632724</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.002783786505460739</v>
+        <v>0.0002458445669617504</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.002187221078202128</v>
+        <v>0.0001402459020027891</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.001248426269739866</v>
+        <v>0.0001560426462674513</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.0006982259219512343</v>
+        <v>0.0002114918170263991</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.0009882048470899463</v>
+        <v>1.136297032644507e-05</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.001058681518770754</v>
+        <v>4.606332367984578e-06</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.001411723904311657</v>
+        <v>0.0002285990049131215</v>
       </c>
       <c r="CX15" t="n">
-        <v>4.683069710154086e-05</v>
+        <v>9.073043474927545e-05</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.0005724941147491336</v>
+        <v>0.0001376866566715762</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.0006152326241135597</v>
+        <v>5.111555947223678e-05</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.002376816002652049</v>
+        <v>3.635254188338877e-06</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0005973557126708329</v>
+        <v>4.249337143846788e-05</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.001061366172507405</v>
+        <v>2.241001129732467e-05</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.001079451525583863</v>
+        <v>1.083668485080125e-05</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.0003340245748404413</v>
+        <v>0.0001778237783582881</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.002328313887119293</v>
+        <v>0.0001176974474219605</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.001264801016077399</v>
+        <v>8.598794011049904e-06</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.0008492829510942101</v>
+        <v>0.0002702996134757996</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.0004810962127521634</v>
+        <v>8.441562385996804e-05</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.001770760281942785</v>
+        <v>3.407956319279037e-05</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.00274233496747911</v>
+        <v>5.392130697146058e-05</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.0008117946563288569</v>
+        <v>8.097907266346738e-05</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.001343175303190947</v>
+        <v>4.465288293431513e-05</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.001964278286322951</v>
+        <v>3.535300129442476e-05</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.0013932422734797</v>
+        <v>9.395166125614196e-05</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0001741071464493871</v>
+        <v>6.731241592206061e-05</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0009602833306416869</v>
+        <v>7.668549369554967e-05</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.001588666113093495</v>
+        <v>0.000170166531461291</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0006878330023027956</v>
+        <v>9.233554919774178e-06</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.001186201116070151</v>
+        <v>1.778655132511631e-05</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.001311158994212747</v>
+        <v>6.042074528522789e-05</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.0029267065692693</v>
+        <v>6.561248301295564e-05</v>
       </c>
       <c r="DW15" t="n">
-        <v>4.107062704861164e-05</v>
+        <v>8.48652925924398e-05</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.000423915043938905</v>
+        <v>0.0001930511207319796</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.000242502661421895</v>
+        <v>2.160745862056501e-05</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0006744868587702513</v>
+        <v>8.740303746890277e-05</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.001520585035905242</v>
+        <v>8.29832351882942e-05</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.0002786194672808051</v>
+        <v>3.410944918869063e-05</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.0007583338301628828</v>
+        <v>5.843611143063754e-05</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.0004060709034092724</v>
+        <v>1.422476634616032e-05</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.0007600871031172574</v>
+        <v>1.448685725335963e-05</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.0008281576447188854</v>
+        <v>2.959371704491787e-05</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.001130774733610451</v>
+        <v>0.0001647202298045158</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.002635853830724955</v>
+        <v>0.0001079536596080288</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.0005569917848333716</v>
+        <v>0.000149735642480664</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.004520014859735966</v>
+        <v>0.0001759344595484436</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.001788886846043169</v>
+        <v>3.963958988606464e-06</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0006429800414480269</v>
+        <v>3.365690645296127e-05</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.001237512100487947</v>
+        <v>4.575281127472408e-05</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.001193517120555043</v>
+        <v>2.054047763522249e-05</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.0007565852720290422</v>
+        <v>4.493533197091892e-06</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.000409975677030161</v>
+        <v>0.0002600492734927684</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.0003339125541970134</v>
+        <v>0.0001243182632606477</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.001475384458899498</v>
+        <v>8.932036143960431e-05</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.0006669790018349886</v>
+        <v>4.548985816654749e-05</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.001020571449771523</v>
+        <v>3.099498280789703e-05</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.001973566832020879</v>
+        <v>9.917736315401271e-05</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.001029143808409572</v>
+        <v>6.117893644841388e-05</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.0009958019945770502</v>
+        <v>4.849999822909012e-05</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.001061035087332129</v>
+        <v>4.638891914510168e-05</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.001418727915734053</v>
+        <v>0.0002385802363278344</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.0003582209465093911</v>
+        <v>6.22990119154565e-05</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.0009266260312870145</v>
+        <v>0.0001126578063121997</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.0006594937294721603</v>
+        <v>3.180188286933117e-05</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.002374363830313087</v>
+        <v>2.032387101280619e-06</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.0001792323892004788</v>
+        <v>3.404651943128556e-05</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.0007492309669032693</v>
+        <v>3.446220034675207e-06</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.001288041821680963</v>
+        <v>2.569826756371185e-05</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.001990386517718434</v>
+        <v>3.297924195067026e-05</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.003333651693537831</v>
+        <v>0.0001190610346384346</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.002784468932077289</v>
+        <v>0.0001055760076269507</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.0004412055714055896</v>
+        <v>9.157926979241893e-05</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.002775979693979025</v>
+        <v>9.016247349791229e-05</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.002141258912160993</v>
+        <v>5.653986227116548e-05</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.0008297346066683531</v>
+        <v>3.763478889595717e-05</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.0007722520967945457</v>
+        <v>3.842043952317908e-05</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.0003237980417907238</v>
+        <v>3.024628131242935e-05</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.001315944478847086</v>
+        <v>0.0001426338421879336</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.0008214820409193635</v>
+        <v>6.513920379802585e-05</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.0002348681737203151</v>
+        <v>0.0001864634832600132</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.007338708266615868</v>
+        <v>2.194781700382009e-06</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.004533383995294571</v>
+        <v>1.47415939864004e-05</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.00581021886318922</v>
+        <v>0.0001179099344881251</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.00079545215703547</v>
+        <v>2.768711055978201e-05</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.00158616085536778</v>
+        <v>5.123337905388325e-05</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.0004306787741370499</v>
+        <v>6.469209620263427e-05</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.00138550135307014</v>
+        <v>0.0001239363627973944</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.001258503412827849</v>
+        <v>2.673271228559315e-05</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.00014606470358558</v>
+        <v>6.715555355185643e-05</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.0009055495611391962</v>
+        <v>4.551983874989673e-05</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.00177807966247201</v>
+        <v>1.505506497778697e-05</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.001575546804815531</v>
+        <v>0.0001490558934165165</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.003050850238651037</v>
+        <v>0.0002539316774345934</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.001926741795614362</v>
+        <v>3.911600651917979e-05</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.00216557364910841</v>
+        <v>0.0001031742358463816</v>
       </c>
     </row>
     <row r="16">
@@ -9539,571 +9539,571 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.02431623451411724</v>
+        <v>0.0001151496253442019</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01815375685691833</v>
+        <v>0.003772437805309892</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03279508650302887</v>
+        <v>0.0001351825776509941</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03503094986081123</v>
+        <v>0.001087681506760418</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004449022933840752</v>
+        <v>0.0008930174517445266</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1212001293897629</v>
+        <v>0.001566610764712095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03970393538475037</v>
+        <v>0.0004269697237759829</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09787419438362122</v>
+        <v>0.001181790372356772</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04717260599136353</v>
+        <v>0.0006145432125777006</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01792695745825768</v>
+        <v>0.0006506874924525619</v>
       </c>
       <c r="K17" t="n">
-        <v>0.006475727539509535</v>
+        <v>0.003261170582845807</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04096672311425209</v>
+        <v>0.0003018025308847427</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03515731543302536</v>
+        <v>0.0006443498423323035</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01520412135869265</v>
+        <v>0.0004051151918247342</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1002372950315475</v>
+        <v>0.002052780706435442</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02974826656281948</v>
+        <v>0.0003552342823240906</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.08631659299135208</v>
+        <v>2.41065863519907e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07022134214639664</v>
+        <v>0.0007623311830684543</v>
       </c>
       <c r="S17" t="n">
-        <v>0.002688379259780049</v>
+        <v>0.0002460376126691699</v>
       </c>
       <c r="T17" t="n">
-        <v>0.007089895661920309</v>
+        <v>0.0004642634594347328</v>
       </c>
       <c r="U17" t="n">
-        <v>0.003014950314536691</v>
+        <v>0.0003559053875505924</v>
       </c>
       <c r="V17" t="n">
-        <v>0.009189071133732796</v>
+        <v>0.0003002985031343997</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02218371257185936</v>
+        <v>0.0004784594348166138</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01613274216651917</v>
+        <v>0.0003236875054426491</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0113033838570118</v>
+        <v>0.0001798303856048733</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.005581108387559652</v>
+        <v>0.0008727470994926989</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01428252086043358</v>
+        <v>0.0005187537171877921</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01945791393518448</v>
+        <v>0.0003106345247942954</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.01691924035549164</v>
+        <v>0.0001413928403053433</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.002296304097399116</v>
+        <v>0.0002710857952479273</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.00696794455870986</v>
+        <v>9.307905565947294e-05</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.02800967916846275</v>
+        <v>0.0003978085587732494</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.008327240124344826</v>
+        <v>7.141115929698572e-05</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.03510270267724991</v>
+        <v>6.674912583548576e-05</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.01119082607328892</v>
+        <v>0.0004482378717511892</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.007666234392672777</v>
+        <v>8.824552787700668e-05</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0004653003998100758</v>
+        <v>0.0004547509597614408</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.01502137258648872</v>
+        <v>0.0007177432416938245</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.01286839321255684</v>
+        <v>6.121543265180662e-05</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0007488052360713482</v>
+        <v>0.000134811969473958</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.02207680605351925</v>
+        <v>7.751772500341758e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.0197813156992197</v>
+        <v>0.0004307539202272892</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.001003315672278404</v>
+        <v>0.0002377799537498504</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.005117641761898994</v>
+        <v>0.0002185553166782483</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.005851100664585829</v>
+        <v>0.0004911798750981688</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.01158685609698296</v>
+        <v>0.000422948447521776</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.00981038436293602</v>
+        <v>0.002564182272180915</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.02212910726666451</v>
+        <v>0.0005978688132017851</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.609251093119383e-05</v>
+        <v>0.0004248520126566291</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.01807884126901627</v>
+        <v>0.0002724712830968201</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.07503277063369751</v>
+        <v>0.0009239607024937868</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.038269303739071e-05</v>
+        <v>0.0008281497284770012</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.03942651674151421</v>
+        <v>0.0005655442946590483</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.02025297656655312</v>
+        <v>0.0007656764355488122</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.002265896182507277</v>
+        <v>4.722480662167072e-05</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.01319738011807203</v>
+        <v>0.0006634785095229745</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.01209576614201069</v>
+        <v>0.0009161152993328869</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.03205966204404831</v>
+        <v>0.0003292430774308741</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.005190089344978333</v>
+        <v>0.0002752863219939172</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.009703039191663265</v>
+        <v>0.0006119519821368158</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.01905918307602406</v>
+        <v>0.0002713205758482218</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.03296877816319466</v>
+        <v>0.0005119545385241508</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.01094172522425652</v>
+        <v>0.0004854003782384098</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.01077461801469326</v>
+        <v>6.478576688095927e-05</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.000557684397790581</v>
+        <v>0.0002602734311949462</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.01450787670910358</v>
+        <v>0.0003750416217371821</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.003766999812796712</v>
+        <v>2.013456833083183e-05</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.01083418726921082</v>
+        <v>1.528987922938541e-05</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.002847487572580576</v>
+        <v>0.0002303438232047483</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.01395109388977289</v>
+        <v>0.0005132809747010469</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.007331211119890213</v>
+        <v>3.877762355841696e-05</v>
       </c>
       <c r="BT17" t="n">
-        <v>0.003803202183917165</v>
+        <v>0.0001831257686717436</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.02132367715239525</v>
+        <v>0.00012286810670048</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.003960864618420601</v>
+        <v>0.001460571074858308</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.00839057844132185</v>
+        <v>0.0004067076661158353</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.01043138187378645</v>
+        <v>0.0001038012560456991</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.02096131071448326</v>
+        <v>0.0002860353561118245</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.02577805146574974</v>
+        <v>0.0004235917876940221</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.01340447925031185</v>
+        <v>1.972734753508121e-05</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.0310040544718504</v>
+        <v>6.472696259152144e-05</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.01496305223554373</v>
+        <v>0.0005436238716356456</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.004948126617819071</v>
+        <v>7.420816109515727e-05</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.01912979036569595</v>
+        <v>0.0006691511953249574</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.008878245949745178</v>
+        <v>0.0003441630105953664</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.0125058526173234</v>
+        <v>0.0002112838556058705</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.002915559336543083</v>
+        <v>0.0001135615311795846</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.02383365854620934</v>
+        <v>7.164439011830837e-05</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.005946170538663864</v>
+        <v>0.0002825236297212541</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.01227447204291821</v>
+        <v>0.0001236338866874576</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.00691113667562604</v>
+        <v>0.0003821926366072148</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.01811379007995129</v>
+        <v>0.0007380431052297354</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.005378410220146179</v>
+        <v>0.0004939188365824521</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.00541995745152235</v>
+        <v>0.0001735168480081484</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.01398294419050217</v>
+        <v>0.0009157379390671849</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.04259909689426422</v>
+        <v>0.0007024257211014628</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.01507719699293375</v>
+        <v>0.0004285740724299103</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.02068455517292023</v>
+        <v>0.0007912650471553206</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.01200293935835361</v>
+        <v>0.0006703606341034174</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.01744223199784756</v>
+        <v>0.0001078164859791286</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.004482458811253309</v>
+        <v>8.276832522824407e-05</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.02397027797996998</v>
+        <v>0.0005652924883179367</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.009578466415405273</v>
+        <v>0.0003565567312762141</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.00809446070343256</v>
+        <v>0.0004459036572370678</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.001644332427531481</v>
+        <v>0.0001937971828738227</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.02357190102338791</v>
+        <v>6.154440779937431e-05</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.0001400124747306108</v>
+        <v>0.0003019938594661653</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.01864271424710751</v>
+        <v>0.0002685005019884557</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.007948976941406727</v>
+        <v>0.0003165269445162266</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.005055977031588554</v>
+        <v>0.0003667623095680028</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.00418299064040184</v>
+        <v>0.0004603150300681591</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.01364754512906075</v>
+        <v>7.528477726737037e-05</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.02133216336369514</v>
+        <v>0.001380494795739651</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.02567237988114357</v>
+        <v>0.001086712814867496</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.01820913329720497</v>
+        <v>0.001270108507014811</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.016662722453475</v>
+        <v>0.0003124093636870384</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.01387283764779568</v>
+        <v>0.0005809690337628126</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.02665325440466404</v>
+        <v>0.0006837111432105303</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.01920696906745434</v>
+        <v>0.0001516352058388293</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.009256915189325809</v>
+        <v>6.747440784238279e-05</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.005931438878178596</v>
+        <v>0.000395870505599305</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.01649019680917263</v>
+        <v>5.760592466685921e-05</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.002567078219726682</v>
+        <v>6.803221913287416e-05</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.01629880256950855</v>
+        <v>0.0001713991514407098</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.005316775292158127</v>
+        <v>0.000393688736949116</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0004609560128301382</v>
+        <v>0.0002804523683153093</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.00332557549700141</v>
+        <v>0.0002953697985503823</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.01312290783971548</v>
+        <v>0.0001116859566536732</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.004762183874845505</v>
+        <v>0.0005167190684005618</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.0003232450690120459</v>
+        <v>0.0005484931170940399</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.002392728812992573</v>
+        <v>0.0003140992776025087</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.004213253501802683</v>
+        <v>0.0001866076199803501</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.006118407007306814</v>
+        <v>0.0002965701860375702</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.01255754753947258</v>
+        <v>4.916237230645493e-05</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.007831335067749023</v>
+        <v>0.0001938763889484107</v>
       </c>
       <c r="EE17" t="n">
-        <v>0.0002096286043524742</v>
+        <v>0.0005643114564009011</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.009516214951872826</v>
+        <v>0.0003085284261032939</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.01619273982942104</v>
+        <v>0.0009806362213566899</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.003921774215996265</v>
+        <v>2.058153768302873e-05</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.01400528196245432</v>
+        <v>9.908584615914151e-05</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.01404299214482307</v>
+        <v>0.0002940794220194221</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.004156018607318401</v>
+        <v>0.0001955919142346829</v>
       </c>
       <c r="EL17" t="n">
-        <v>3.766163717955351e-05</v>
+        <v>0.0003964598290622234</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.01703162491321564</v>
+        <v>0.000125262959045358</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.01005998533219099</v>
+        <v>0.0001944273826666176</v>
       </c>
       <c r="EO17" t="n">
-        <v>0.0004203398711979389</v>
+        <v>1.74027809407562e-06</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.01299558393657207</v>
+        <v>0.0002862395776901394</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.01149979326874018</v>
+        <v>0.0008517169044353068</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.01817655190825462</v>
+        <v>0.0006464264588430524</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.01648389548063278</v>
+        <v>0.0005100840353406966</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.008285483345389366</v>
+        <v>0.000285099318716675</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.009099923074245453</v>
+        <v>0.0007534079486504197</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.003218073630705476</v>
+        <v>0.0006804597214795649</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.001247173640877008</v>
+        <v>0.0001485942921135575</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.007557631935924292</v>
+        <v>6.992192356847227e-05</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.01925796270370483</v>
+        <v>0.000610527815297246</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.01096292119473219</v>
+        <v>0.0003035073459614068</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.009205186739563942</v>
+        <v>0.0001530859590275213</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.0006111455149948597</v>
+        <v>0.0002205468190368265</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.02222795039415359</v>
+        <v>9.784771827980876e-05</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.003602617653086782</v>
+        <v>0.000501415051985532</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.0186036042869091</v>
+        <v>0.0002362369268666953</v>
       </c>
       <c r="FF17" t="n">
-        <v>0.003695609048008919</v>
+        <v>0.0004561185778584331</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.01136478409171104</v>
+        <v>0.0001783641346264631</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.01794079132378101</v>
+        <v>0.0001418071042280644</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.007843255996704102</v>
+        <v>0.0008400760125368834</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.002896494464948773</v>
+        <v>0.0003988308599218726</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.00549871614202857</v>
+        <v>0.0001282382727367803</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.03382406011223793</v>
+        <v>0.0002482130366843194</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.003651134204119444</v>
+        <v>0.0002801127557177097</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.01982231438159943</v>
+        <v>0.0002578357234597206</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.0010867640376091</v>
+        <v>0.0003062936884816736</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.002593892626464367</v>
+        <v>0.0001880079798866063</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.01068791747093201</v>
+        <v>0.0003384627343621105</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.005583149380981922</v>
+        <v>0.0007204352295957506</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.05253992974758148</v>
+        <v>0.0007001301273703575</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.02348792552947998</v>
+        <v>0.0006323480047285557</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.06015034392476082</v>
+        <v>0.0003623912925831974</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.00640413910150528</v>
+        <v>0.0005607015336863697</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.03523959219455719</v>
+        <v>0.0001146009672083892</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.008761645294725895</v>
+        <v>0.0001861560886027291</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.004905252251774073</v>
+        <v>0.0008420113008469343</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.01063164882361889</v>
+        <v>0.0002966542670037597</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.002690253313630819</v>
+        <v>0.0002427469298709184</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.004438850097358227</v>
+        <v>0.0001203264837386087</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.0154300257563591</v>
+        <v>0.0003346983867231756</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.01366356387734413</v>
+        <v>0.0004837640444748104</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.02169087156653404</v>
+        <v>0.001055579516105354</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.0003689024597406387</v>
+        <v>0.0001019320770865306</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.01562997326254845</v>
+        <v>0.0001326041237916797</v>
       </c>
     </row>
     <row r="18">
